--- a/public/excel/format_pbj/pbjrahmi1.xlsx
+++ b/public/excel/format_pbj/pbjrahmi1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LPKN 1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\membership_laravel\public\excel\format_pbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A000E-51F7-4128-8FC4-94D2D2C034E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7320"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="672">
   <si>
     <t>Email Address</t>
   </si>
   <si>
-    <t>Nama Lengkap (Tanpa Gelar)</t>
-  </si>
-  <si>
     <t>Nama Lengkap (dengan Gelar)</t>
-  </si>
-  <si>
-    <t>Email Aktif</t>
   </si>
   <si>
     <t>No Hp (Whatsapp)</t>
@@ -146,9 +141,6 @@
   </si>
   <si>
     <t>Jenis Kelamin</t>
-  </si>
-  <si>
-    <t>Upload Foto KTP</t>
   </si>
   <si>
     <t>Upload Pas Foto 3x4</t>
@@ -193,9 +185,6 @@
     <t>fierstiyantostevanusagung@gmail.com</t>
   </si>
   <si>
-    <t>STEVANUS AGUNG FIERSTIYANTO</t>
-  </si>
-  <si>
     <t>STEVANUS AGUNG FIERSTIYANTO, S.STP, M.SI</t>
   </si>
   <si>
@@ -241,9 +230,6 @@
     <t>Laki-Laki</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=17pbqbyoJeaeKsp68Dd_5i4EXKnPaRLsw</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1UYmr9v_fPuWO8HN9Yz7KaeqalsRsjl9X</t>
   </si>
   <si>
@@ -253,9 +239,6 @@
     <t>andi.mahirah@gmail.com</t>
   </si>
   <si>
-    <t>Andi Mahirah</t>
-  </si>
-  <si>
     <t>Andi Mahirah, S.Kom., M.M.</t>
   </si>
   <si>
@@ -298,9 +281,6 @@
     <t>Perempuan</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1l5wcgvt61VB8MQbis2Ixkizjvr-d0_XB</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1omPo-ZmZPk3VUJuKbXrpu0ZX2E15Fe2e</t>
   </si>
   <si>
@@ -310,9 +290,6 @@
     <t>shabillamulya@gmail.com</t>
   </si>
   <si>
-    <t>Adlin Shabilla Mulya</t>
-  </si>
-  <si>
     <t>Adlin Shabilla Mulya, S.Hum</t>
   </si>
   <si>
@@ -346,9 +323,6 @@
     <t>Bukan PNS</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1lD-nx7qI5oZET5ka45bnavBXVYg8fJPL</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=16QcBkf8gGjrHX7jAfvZx7Wd6MaLYGgoc</t>
   </si>
   <si>
@@ -358,15 +332,9 @@
     <t>gitasaputri2012@gmail.com</t>
   </si>
   <si>
-    <t>Gita Saputri</t>
-  </si>
-  <si>
     <t>Gita Saputri, S.S,M.M</t>
   </si>
   <si>
-    <t>Gitasaputri2012@gmail.com</t>
-  </si>
-  <si>
     <t>085718156426</t>
   </si>
   <si>
@@ -388,24 +356,15 @@
     <t>AGEN PENGADAAN</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1jdH_MNvQzEDTxtMRQLChaJFTIjz-ETvB</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1GxbMqsUzmvnsAdnXFNfrvSvr-xkXzXuS</t>
   </si>
   <si>
     <t>putrieaprillita@gmail.com</t>
   </si>
   <si>
-    <t>Putrie Aprillita Mantassya</t>
-  </si>
-  <si>
     <t>Putrie Aprillita Mantassya, S.E.</t>
   </si>
   <si>
-    <t>putrieaprillitassya@gmail.com</t>
-  </si>
-  <si>
     <t>08989122434</t>
   </si>
   <si>
@@ -445,9 +404,6 @@
     <t>Rp. 6.750.000,- (Menginap Twin Share (1 Kamar Berdua))</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1bFmmySY8rBkbaGXPbe4y2a1-9lKjFdW4</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1IkYSD5UShovHShta5V--XGCOZJa0cR36</t>
   </si>
   <si>
@@ -457,13 +413,7 @@
     <t>agatha.a.khristanti@gmail.com</t>
   </si>
   <si>
-    <t>Agatha Ayu Khristanti</t>
-  </si>
-  <si>
     <t>Agatha Ayu Khristanti, S.T.</t>
-  </si>
-  <si>
-    <t>agatha.khristanti@bsn.go.id</t>
   </si>
   <si>
     <t>081311527665</t>
@@ -485,9 +435,6 @@
     <t>III/a</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1tidpIPXg4FvLpAbAtmBQLa9r5xhphpBf</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1vWhKU2j-fGFNImCZ003P1ze7InpQeF0u</t>
   </si>
   <si>
@@ -497,9 +444,6 @@
     <t>iswanto88totou@gmail.com</t>
   </si>
   <si>
-    <t>Iswanto Totou</t>
-  </si>
-  <si>
     <t>Iswanto Totou, ST</t>
   </si>
   <si>
@@ -533,9 +477,6 @@
     <t>III/c</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1wR5rQBUUVBrSa11-X-grDXpsfa5RnY_n</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1DE6iLjuGwE41VTbbMTh9YVSL2ETKjn9a</t>
   </si>
   <si>
@@ -545,15 +486,9 @@
     <t>azwar.pengadaan@gmail.com</t>
   </si>
   <si>
-    <t>Azwar Annas</t>
-  </si>
-  <si>
     <t>Azwar Annas, S.T.</t>
   </si>
   <si>
-    <t>azwar.annas@perumnas.co.id</t>
-  </si>
-  <si>
     <t>081280578185</t>
   </si>
   <si>
@@ -578,9 +513,6 @@
     <t>Staff Senior</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1Zj-GaHHu8Q2XKbbIYM5DhuvRXYByIiE8</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1vqbE6D0e9R5R1GRwG96c_mGw8xuaZlvn</t>
   </si>
   <si>
@@ -590,9 +522,6 @@
     <t>dsolvabi@gmail.com</t>
   </si>
   <si>
-    <t>Dita Solvabi Andiani</t>
-  </si>
-  <si>
     <t>Dita Solvabi Andiani S.E.</t>
   </si>
   <si>
@@ -611,9 +540,6 @@
     <t>Staf Pengadaan Non Teknik</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1c__0BtjYtMNWYXAg6ZHOLNXIE0tn4gOk</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1AJcgWlNVXpwcLvt35BrQhFlSe9ZZLFxp</t>
   </si>
   <si>
@@ -623,9 +549,6 @@
     <t>ep.ied1978@gmail.com</t>
   </si>
   <si>
-    <t>Idma Eka Putra</t>
-  </si>
-  <si>
     <t>Idma Eka Putra, S. Pd, MM</t>
   </si>
   <si>
@@ -659,9 +582,6 @@
     <t>IV.A</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1kvxtBHedBzwLXREYh97xEasa6YxrtNp2</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1QjoY9W3CDBpwwK6XHQODeoDx9kYdxY3P</t>
   </si>
   <si>
@@ -671,15 +591,9 @@
     <t>brianpardosi@gmail.com</t>
   </si>
   <si>
-    <t>Brian Halomoan Putra</t>
-  </si>
-  <si>
     <t>Brian Halomoan Putra, S.T.</t>
   </si>
   <si>
-    <t>brian.pardosi@bsn.go.id</t>
-  </si>
-  <si>
     <t>082251165083</t>
   </si>
   <si>
@@ -695,9 +609,6 @@
     <t>III A</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1PI9u6CeGFrF4P72kKlaOTR8VjoREEmQC</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1EGGnSIKBQa9HrVkgwgOSLofwYYQFU1LC</t>
   </si>
   <si>
@@ -707,9 +618,6 @@
     <t>rismaarwen@gmail.com</t>
   </si>
   <si>
-    <t>Rismawati</t>
-  </si>
-  <si>
     <t>Rismawati, SKM, M.Si</t>
   </si>
   <si>
@@ -743,9 +651,6 @@
     <t>Pembina, IV/a</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=12irTim-Cc6mNLYli_K0FlTNEs4JEOJJH</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=11_4DuBW1ihtV3lXdqwSUyJXSQ0tRleQZ</t>
   </si>
   <si>
@@ -755,9 +660,6 @@
     <t>ekaandries81@gmail.com</t>
   </si>
   <si>
-    <t>EKA ANDRIES</t>
-  </si>
-  <si>
     <t>EKA ANDRIES, S.Pd. M.Si</t>
   </si>
   <si>
@@ -791,9 +693,6 @@
     <t>Penata tk.I . III/d</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1qFUQZSsaMyfXkBTHYkzgboUg5YdC0uOo</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=19dK9oERB8HL1DKUAPWVkE9v6rsyj2Hg1</t>
   </si>
   <si>
@@ -803,9 +702,6 @@
     <t>achmaddanu1979@gmail.com</t>
   </si>
   <si>
-    <t>Achmad Danu</t>
-  </si>
-  <si>
     <t>Achmad Danu, S.Tr.A.P.</t>
   </si>
   <si>
@@ -839,9 +735,6 @@
     <t>Penelaah Teknis Kebijakan</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=12TaqYAGA0reYMPapmn78wcJB71zlsn0Y</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1KDpAWq0nw07Fx36882YozGXZM8_UWJ5M</t>
   </si>
   <si>
@@ -851,9 +744,6 @@
     <t>ethabalang85@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Margaretha </t>
-  </si>
-  <si>
     <t>Margaretha, S.Sos.,M.Si</t>
   </si>
   <si>
@@ -881,9 +771,6 @@
     <t>Penata Tk. I III/d</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1EPLoF_k1J_AadFxq4zp06667FibsRNJV</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1sOwlUJ77gyJFZzT7FRcGwCNToRLo5jxr</t>
   </si>
   <si>
@@ -893,15 +780,9 @@
     <t>busaid1973@gmail.com</t>
   </si>
   <si>
-    <t>Busaid</t>
-  </si>
-  <si>
     <t>Busaid, S.P., M.Si.</t>
   </si>
   <si>
-    <t>said1973@apps.ipb.ac.id</t>
-  </si>
-  <si>
     <t>0811119680</t>
   </si>
   <si>
@@ -929,9 +810,6 @@
     <t>IIIc</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1MoMh2Y-m71mPV4AYvGzvJJ3VNr7cdOmR</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1Z4rvAF5YHlwJL0OBoe2cVVzqrkZvdQrp</t>
   </si>
   <si>
@@ -971,9 +849,6 @@
     <t>POKJA PEMILIHAN</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1Z67Sniy71rDco4CtrZ2mwv3WUV6YIMvN</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1eZ75lA1asMcGJGCcwt9oAw4q2rvLlNPO</t>
   </si>
   <si>
@@ -983,15 +858,9 @@
     <t>asihmulyaningsih75@gmail.com</t>
   </si>
   <si>
-    <t>Asih Mulyaningsih</t>
-  </si>
-  <si>
     <t>Dr. Asih Mulyaningsih, SP., M. Si</t>
   </si>
   <si>
-    <t>asihmulya@untirta.ac.id</t>
-  </si>
-  <si>
     <t>085920181487</t>
   </si>
   <si>
@@ -1028,9 +897,6 @@
     <t>Rp. 7.250.000,- (Menginap Single (1 Kamar Sendiri))</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1jzMGzXmQW5IZpOUaZV27RnPsHCXmKk66</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1q60f31DY_Svs4S7oExWh92xcxUeo8wy_</t>
   </si>
   <si>
@@ -1040,15 +906,9 @@
     <t>widihastuti1605@gmail.com</t>
   </si>
   <si>
-    <t>Widi hastuti</t>
-  </si>
-  <si>
     <t>Widi hastuti SE</t>
   </si>
   <si>
-    <t>Widihastuti1605@gmail.com</t>
-  </si>
-  <si>
     <t>08116151605</t>
   </si>
   <si>
@@ -1076,15 +936,9 @@
     <t>G5</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1NZUKeUePiv3w81Ddv9nIT3z-W7DSexAF</t>
-  </si>
-  <si>
     <t>aprasetianovi11@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Novi Nur Peasetianingrum </t>
-  </si>
-  <si>
     <t>Novi Nur Peasetianingrum, S.Mat.</t>
   </si>
   <si>
@@ -1106,18 +960,12 @@
     <t xml:space="preserve">Jl. Bekasi Timur No 76 Jatinegara Jakarta Timur </t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1wXl_xA0akE1tqb2Fo0QAATMMF9BAjXf-</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1eKyNDyEZyiOi0RKmnT7VxCe8tF7U0K99</t>
   </si>
   <si>
     <t>rickycasanova44@gmail.com</t>
   </si>
   <si>
-    <t>Ricky Casanopa</t>
-  </si>
-  <si>
     <t>Ricky Casanopa, A. Md. Kep</t>
   </si>
   <si>
@@ -1151,9 +999,6 @@
     <t>Pengatur Tk 1/ IId</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1a2NpNKzVlvY_spdVE7luxCNSVk6vnmDy</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1zZF9SEPucb4h6tB7nCh_k6_e0dRiUg6W</t>
   </si>
   <si>
@@ -1163,15 +1008,9 @@
     <t>raymondsinaga1988@gmail.com</t>
   </si>
   <si>
-    <t>Surya Raymond</t>
-  </si>
-  <si>
     <t>Surya Raymond AMd.</t>
   </si>
   <si>
-    <t>surya.raymond@kemsos.go.id</t>
-  </si>
-  <si>
     <t>082247819040</t>
   </si>
   <si>
@@ -1199,9 +1038,6 @@
     <t>IId</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1HXm7TjQUF4w3tQXPwPyoQHD2n1AQFnu6</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1vNVhdIk3l0iR5hkpPCm5l9d_QPkMmlAj</t>
   </si>
   <si>
@@ -1211,9 +1047,6 @@
     <t>ditta.dwidamayanti@gmail.com</t>
   </si>
   <si>
-    <t>Ditta Dwi Damayanti</t>
-  </si>
-  <si>
     <t>Ditta Dwi Damayanti, SE.</t>
   </si>
   <si>
@@ -1235,9 +1068,6 @@
     <t>D1</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1j17ARiKHBNT_XE9wQcs1caLpBn65dPpS</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1VLTN9z15EIhHdCPMLoF4GArFE-xVvV9c</t>
   </si>
   <si>
@@ -1247,9 +1077,6 @@
     <t>bagastendit@gmail.com</t>
   </si>
   <si>
-    <t>Bagas Tenditya Putra</t>
-  </si>
-  <si>
     <t>Bagas Tenditya Putra, A.Md</t>
   </si>
   <si>
@@ -1280,9 +1107,6 @@
     <t>II/C</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1FMyndZVEaiBrSt0GWTvZ8zbYBWTnycJ4</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1_QX_b3zfMX0pdxi7pYXbWpWgkDYU9eXJ</t>
   </si>
   <si>
@@ -1292,9 +1116,6 @@
     <t>bss.nspol@gmail.com</t>
   </si>
   <si>
-    <t>Budi Susanto</t>
-  </si>
-  <si>
     <t>dr . Budi Susanto, SpBS</t>
   </si>
   <si>
@@ -1325,9 +1146,6 @@
     <t>akbp</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1t5_fQWSRNZ05fUXbEjpfd2kNvnjavMtN</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1GcSYydZW5LGUJ436T5xFIzZ50nnw7xjt</t>
   </si>
   <si>
@@ -1337,9 +1155,6 @@
     <t>rahayukurniawati02@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">RAHAYU KURNIAWATI </t>
-  </si>
-  <si>
     <t>RAHAYU KURNIAWATI, AM.Keb, SKM</t>
   </si>
   <si>
@@ -1373,9 +1188,6 @@
     <t>III C/ PENATA</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=192Z7aqBqTqT2BBEksAg5WwsmXBO2cv2g</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1QpaxjRAZx38gKswfmJf-aUN0cllyA9lH</t>
   </si>
   <si>
@@ -1385,9 +1197,6 @@
     <t>handayanisari663@gmail.com</t>
   </si>
   <si>
-    <t>SARI HANDAYANI</t>
-  </si>
-  <si>
     <t>SARI HANDAYANI, SKM</t>
   </si>
   <si>
@@ -1418,9 +1227,6 @@
     <t>Penata Tk.I / III D</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1JvGW8tIZtdIcyojt7O83jNqPoAGdPg65</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=19WOKY2fcARn7Q_ZNvGkO5B40o53q6_J0</t>
   </si>
   <si>
@@ -1430,15 +1236,9 @@
     <t>awanggigi28@gmail.com</t>
   </si>
   <si>
-    <t>Muhlis</t>
-  </si>
-  <si>
     <t>Ns.Muhlis S.Kep</t>
   </si>
   <si>
-    <t>brmuhlis@gmail.com</t>
-  </si>
-  <si>
     <t>081908904141</t>
   </si>
   <si>
@@ -1499,9 +1299,6 @@
     <t>2 D</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1A2kckQ1HV0ihQLd6wuj_oKkGfqnWbZ4f</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1qQ6zOU8wzlBLIk6rpzIwfVPY4o1Waek8</t>
   </si>
   <si>
@@ -1511,15 +1308,9 @@
     <t>tinisukarsih71@gmail.com</t>
   </si>
   <si>
-    <t>Tini Sukarsih</t>
-  </si>
-  <si>
     <t>Tini Sukarsih,S.E</t>
   </si>
   <si>
-    <t>tinisukarsih.akt58@lppgurindam.com</t>
-  </si>
-  <si>
     <t>018128653770</t>
   </si>
   <si>
@@ -1547,9 +1338,6 @@
     <t>III- D</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1MvscdgiGKEMcp7kwl2RrZh2OYkPRd5D9</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1oWrh5aKWjQRFTIK15MoxZoRp2mdxIh-_</t>
   </si>
   <si>
@@ -1562,9 +1350,6 @@
     <t>TASRINGAH</t>
   </si>
   <si>
-    <t>tasringah15@gamail.com</t>
-  </si>
-  <si>
     <t>081213243343</t>
   </si>
   <si>
@@ -1586,9 +1371,6 @@
     <t>KOMPOL</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1hS8ffd5Be5g739Ajl4WQQEyjSWGESMYf</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1nSkPj8FPGYjZhcx2zEZxgbO13WLDA58W</t>
   </si>
   <si>
@@ -1598,9 +1380,6 @@
     <t>MARSIYO</t>
   </si>
   <si>
-    <t xml:space="preserve">marsiyo.akt58@lppgurindam.com </t>
-  </si>
-  <si>
     <t>08159866106</t>
   </si>
   <si>
@@ -1631,9 +1410,6 @@
     <t>PENDA TK. I / III B</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1aedsGbULT1CI8IVYGC_B0XaOhtHuCXqF</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=19fnlNtLt58AK7Ysh61-drK3Kfs_XSdR2</t>
   </si>
   <si>
@@ -1643,15 +1419,9 @@
     <t>rinimaulisa1981@gmail.com</t>
   </si>
   <si>
-    <t>Rini maulisa</t>
-  </si>
-  <si>
     <t>Rini maulisa s.sos</t>
   </si>
   <si>
-    <t>Rinimaulisa@banksumut.co.id</t>
-  </si>
-  <si>
     <t>081260189889</t>
   </si>
   <si>
@@ -1679,9 +1449,6 @@
     <t>isronikomarwati69@gmail.com</t>
   </si>
   <si>
-    <t>Isroni Komarwati</t>
-  </si>
-  <si>
     <t>Isroni Komarwati, SKM</t>
   </si>
   <si>
@@ -1712,9 +1479,6 @@
     <t>Penata TK I/III D</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1kJnacjCbsUDoRcX09pbX-E6DH6wniZ1y</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1nSSq6fDOdfMaw5S8E655nEtKiYJpXZdm</t>
   </si>
   <si>
@@ -1724,9 +1488,6 @@
     <t>nurachman26@dikbud.belajar.id</t>
   </si>
   <si>
-    <t>Nurachman</t>
-  </si>
-  <si>
     <t>Nurachman, S.Pd.</t>
   </si>
   <si>
@@ -1754,9 +1515,6 @@
     <t>IIIa</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=19tarURiH3oUeepurda2y5JJmXM2pLiX7</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1Lbg2oHj6urRxBsHyJ2_yBSYf2I9m5OD2</t>
   </si>
   <si>
@@ -1766,9 +1524,6 @@
     <t>rama@untirta.ac.id</t>
   </si>
   <si>
-    <t>RAMA INDERA KUSUMA</t>
-  </si>
-  <si>
     <t>RAMA INDERA KUSUMA.,ST.,MT</t>
   </si>
   <si>
@@ -1799,9 +1554,6 @@
     <t>IIId</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1dBIO75GtR9Xvwt9k1oBDGYZYbt5p01DP</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1XU_sde2GHvUiGU8FcyBpc-haYkkY0SOx</t>
   </si>
   <si>
@@ -1811,9 +1563,6 @@
     <t>drcsiagian@gmail.com</t>
   </si>
   <si>
-    <t>Carles Siagian</t>
-  </si>
-  <si>
     <t>dr. Carles Siagian, SpOT(K) Spine</t>
   </si>
   <si>
@@ -1841,9 +1590,6 @@
     <t>AKBP</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=18H2M6O-wk_FcuoOYqCJUsBmVvyiWZcSI</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1vlrfHTGb9YsE_T-RUcYe9893gyD4BBEV</t>
   </si>
   <si>
@@ -1853,9 +1599,6 @@
     <t>tri.wahyudi@untirta.ac.id</t>
   </si>
   <si>
-    <t>Tri Wahyudi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tri Wahyudi S.Pd.,M.Ak. </t>
   </si>
   <si>
@@ -1883,9 +1626,6 @@
     <t>IIIC</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1PN7ZZnD7aAiFc2NL24MbA-urKEcTRKLv</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1WZhQ0PyXIAKugyV-fuS6oFiIAt1tX7n3</t>
   </si>
   <si>
@@ -1895,13 +1635,7 @@
     <t>usg4dimensi@gmail.com</t>
   </si>
   <si>
-    <t>Semuel</t>
-  </si>
-  <si>
     <t>Dr dr Semuel SpOG(K) SH MH</t>
-  </si>
-  <si>
-    <t>usg4dimensi@yahoo.com</t>
   </si>
   <si>
     <t>081999777771</t>
@@ -1929,9 +1663,6 @@
     <t>zulfaisnianto@gmail.com</t>
   </si>
   <si>
-    <t>Zulfa Isnianto</t>
-  </si>
-  <si>
     <t>Zulfa Isnianto, SKM, MARS</t>
   </si>
   <si>
@@ -1956,385 +1687,460 @@
     <t>Kasubag Humas dan SIRS</t>
   </si>
   <si>
+    <t>https://drive.google.com/open?id=1gsVSL6HWnDZnexfslmhXSJRtc5WooMiQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1sWHKfFXH3-qhIf8ol992tzfYk1hUBTuj</t>
+  </si>
+  <si>
+    <t>rusiyantidian@gmail.com</t>
+  </si>
+  <si>
+    <t>Dian Rusiyanti. S.E</t>
+  </si>
+  <si>
+    <t>08179830303</t>
+  </si>
+  <si>
+    <t>Jakarta 26 september 1978</t>
+  </si>
+  <si>
+    <t>RS Bhayangkara Tk.I Pusdokkes Polri</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>197909262005012007</t>
+  </si>
+  <si>
+    <t>3174016609790015</t>
+  </si>
+  <si>
+    <t>Jl. Raya bogor, Kramat jati, Jakarta timur</t>
+  </si>
+  <si>
+    <t>Rs polri</t>
+  </si>
+  <si>
+    <t>PAMIN SUB MATLOG</t>
+  </si>
+  <si>
+    <t>PENDA / III A</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1S2NpMNxiapsf91hZTDHPXPxW02XkQi7A</t>
+  </si>
+  <si>
+    <t>SUYARNO</t>
+  </si>
+  <si>
+    <t>08128132172</t>
+  </si>
+  <si>
+    <t>MAGETAN, 18 AGUSTUS 1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS  Bhayangkara Tk.I Pusdokkes Polri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DkI Jakarta </t>
+  </si>
+  <si>
+    <t>197208181994031003</t>
+  </si>
+  <si>
+    <t>3175041808720009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl.RS Polri Kramatjati Jakarta Timur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBBAG Matlog </t>
+  </si>
+  <si>
+    <t>Pamin</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1i3mjTp1s-ppXBoNAqyq5_KtWurnqqK8-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1G70Sr-Zekz9WM_WtAoplJ8MMuSdpf8oz</t>
+  </si>
+  <si>
+    <t>alexy_okto@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kombes Pol dr. Alexy Oktoman Djohansjah, SpOG, Subsp.Onk, MKes, MARS</t>
+  </si>
+  <si>
+    <t>08129466540</t>
+  </si>
+  <si>
+    <t>Jember 15 oktober 1975</t>
+  </si>
+  <si>
+    <t>Subspesialis/ Konsultan Onkologi Ginekologi</t>
+  </si>
+  <si>
+    <t>RS BHAYANGKARA Tk1 PUSDOKKES POLRI</t>
+  </si>
+  <si>
+    <t>3171041510750004</t>
+  </si>
+  <si>
+    <t>Jl. RS Polri Kramat Jati</t>
+  </si>
+  <si>
+    <t>Rumah Sakit</t>
+  </si>
+  <si>
+    <t>Ahli Utama</t>
+  </si>
+  <si>
+    <t>Komisaris Besar Polisi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=127oWkImNPQcipzVPRB8WrNx2VEdyoBml</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Jvw0FRwe1xDCl1P5db8mVDDWt6G0Vl6L</t>
+  </si>
+  <si>
+    <t>muhammadbasirung45@pusdatin.belajar.id</t>
+  </si>
+  <si>
+    <t>Muhammad Romario Basirung, S.Pd., M.Pd.</t>
+  </si>
+  <si>
+    <t>081342051675</t>
+  </si>
+  <si>
+    <t>Parekaju, 13 Mei 1994</t>
+  </si>
+  <si>
+    <t>S2, M.Pd.</t>
+  </si>
+  <si>
+    <t>Kemendikbudristek</t>
+  </si>
+  <si>
+    <t>199405132022031007</t>
+  </si>
+  <si>
+    <t>7317111305940002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. RE Martadinata No.KM. 15.5, Cipayung, Kec. Ciputat, Kota Tangerang Selatan, Banten </t>
+  </si>
+  <si>
+    <t>Tata Kelola TIK (SPBE)</t>
+  </si>
+  <si>
+    <t>PENYELENGGARA SWAKELOLA</t>
+  </si>
+  <si>
+    <t>Penata Kelola Sistem dan Teknologi Informasi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WSpXLJPKxuxepuAAQL1FTsM2Mzsq1Fj6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pdfkSuogwJPqY-VUrvFmQdXWQtPw_IZp</t>
+  </si>
+  <si>
+    <t>rafaelsamuel56@gmail.com</t>
+  </si>
+  <si>
+    <t>Raffael Semuel Hetharie, S.Tr.Pel</t>
+  </si>
+  <si>
+    <t>081292374118</t>
+  </si>
+  <si>
+    <t>Bogor, 10 Juni 2000</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Kementerian Perhubungan</t>
+  </si>
+  <si>
+    <t>200006102022101002</t>
+  </si>
+  <si>
+    <t>3201291006000002</t>
+  </si>
+  <si>
+    <t>Jl. Jenderal Sudirman, Distrik Kota Waisai, Kabupaten Raja Ampat</t>
+  </si>
+  <si>
+    <t>Kantor Unit Penyelenggara Pelabuhan Kelas II Raja Ampat</t>
+  </si>
+  <si>
+    <t>Pemeriksa Kesyahbandaran</t>
+  </si>
+  <si>
+    <t>Golongan 3/a</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NEDLZmYB5StvVXQ07aur4y8S659VvpFu</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1QDvlvl9bH9FYUek1oUaoFv3Zw46DJrnN</t>
+  </si>
+  <si>
+    <t>lukman4work@gmail.com</t>
+  </si>
+  <si>
+    <t>Lukman Yahya, S.T</t>
+  </si>
+  <si>
+    <t>08114334115</t>
+  </si>
+  <si>
+    <t>Purbalingga, 1 Maret 1986</t>
+  </si>
+  <si>
+    <t>Pusdatin Kemendikbudristek</t>
+  </si>
+  <si>
+    <t>198603012019021007</t>
+  </si>
+  <si>
+    <t>3303060103860002</t>
+  </si>
+  <si>
+    <t>Pusdatin</t>
+  </si>
+  <si>
+    <t>Manggala Informatika</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rww-G1XtlLIHfEw_3xKhzZY9j1L582iY</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1_93OOXWh1aUymPjn2qlpsxxrsQ1t2g03</t>
+  </si>
+  <si>
+    <t>r.sudiana@untirta.ac.id</t>
+  </si>
+  <si>
+    <t>Ria Sudiana, M.Si.</t>
+  </si>
+  <si>
+    <t>081808851264</t>
+  </si>
+  <si>
+    <t>Serang, 30 Januari 1981</t>
+  </si>
+  <si>
+    <t>198101302008121001</t>
+  </si>
+  <si>
+    <t>3604223001810002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FKIP Untirta Jl. Ciwaru Raya, Cipare, Kec. Serang, Kota Serang, Banten </t>
+  </si>
+  <si>
+    <t>FKIP Untirta</t>
+  </si>
+  <si>
+    <t>Wakil Dekan II</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1WmIbOPq2w3hR8uvrcsw75G5pNM9GwkTd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aNdVQsX2_MMBhpv8CBoHoMNATUmBuxPl</t>
+  </si>
+  <si>
+    <t>inggridwage@gmail.com</t>
+  </si>
+  <si>
+    <t>apt. Inggrid Yosefa Jue Wage, S.Farm</t>
+  </si>
+  <si>
+    <t>082339855614</t>
+  </si>
+  <si>
+    <t>Bajawa, 02 September 1994</t>
+  </si>
+  <si>
+    <t>Rumah Sakit Umum Daerah Aeramo</t>
+  </si>
+  <si>
+    <t>Pemerintah Daerah Kabupaten Nagekeo</t>
+  </si>
+  <si>
+    <t>199409022019032020</t>
+  </si>
+  <si>
+    <t>5309074209940001</t>
+  </si>
+  <si>
+    <t>Jl. Prof. W.Z. Yohanes, Desa Aeramo, Kec. Aesesa, Kab. Nagekeo Kode Pos 86472</t>
+  </si>
+  <si>
+    <t>Apoteker Ahli Muda</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18ulBKU6P3Lw5f4DEfhIWey0Xo0I4A9DW</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZHvXNwvwjohovOXwDSu15fp_NzLlogoZ</t>
+  </si>
+  <si>
+    <t>achirudin.afif@gmail.com</t>
+  </si>
+  <si>
+    <t>081315195657</t>
+  </si>
+  <si>
+    <t>Upload Foto KTP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17pbqbyoJeaeKsp68Dd_5i4EXKnPaRLsw</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1l5wcgvt61VB8MQbis2Ixkizjvr-d0_XB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1lD-nx7qI5oZET5ka45bnavBXVYg8fJPL</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jdH_MNvQzEDTxtMRQLChaJFTIjz-ETvB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1bFmmySY8rBkbaGXPbe4y2a1-9lKjFdW4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1tidpIPXg4FvLpAbAtmBQLa9r5xhphpBf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wR5rQBUUVBrSa11-X-grDXpsfa5RnY_n</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Zj-GaHHu8Q2XKbbIYM5DhuvRXYByIiE8</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1c__0BtjYtMNWYXAg6ZHOLNXIE0tn4gOk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kvxtBHedBzwLXREYh97xEasa6YxrtNp2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PI9u6CeGFrF4P72kKlaOTR8VjoREEmQC</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12irTim-Cc6mNLYli_K0FlTNEs4JEOJJH</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qFUQZSsaMyfXkBTHYkzgboUg5YdC0uOo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12TaqYAGA0reYMPapmn78wcJB71zlsn0Y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1EPLoF_k1J_AadFxq4zp06667FibsRNJV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MoMh2Y-m71mPV4AYvGzvJJ3VNr7cdOmR</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Z67Sniy71rDco4CtrZ2mwv3WUV6YIMvN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1jzMGzXmQW5IZpOUaZV27RnPsHCXmKk66</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NZUKeUePiv3w81Ddv9nIT3z-W7DSexAF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wXl_xA0akE1tqb2Fo0QAATMMF9BAjXf-</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1a2NpNKzVlvY_spdVE7luxCNSVk6vnmDy</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HXm7TjQUF4w3tQXPwPyoQHD2n1AQFnu6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1j17ARiKHBNT_XE9wQcs1caLpBn65dPpS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FMyndZVEaiBrSt0GWTvZ8zbYBWTnycJ4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1t5_fQWSRNZ05fUXbEjpfd2kNvnjavMtN</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=192Z7aqBqTqT2BBEksAg5WwsmXBO2cv2g</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JvGW8tIZtdIcyojt7O83jNqPoAGdPg65</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1A2kckQ1HV0ihQLd6wuj_oKkGfqnWbZ4f</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1MvscdgiGKEMcp7kwl2RrZh2OYkPRd5D9</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hS8ffd5Be5g739Ajl4WQQEyjSWGESMYf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1aedsGbULT1CI8IVYGC_B0XaOhtHuCXqF</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kJnacjCbsUDoRcX09pbX-E6DH6wniZ1y</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19tarURiH3oUeepurda2y5JJmXM2pLiX7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dBIO75GtR9Xvwt9k1oBDGYZYbt5p01DP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=18H2M6O-wk_FcuoOYqCJUsBmVvyiWZcSI</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1PN7ZZnD7aAiFc2NL24MbA-urKEcTRKLv</t>
+  </si>
+  <si>
     <t>https://drive.google.com/open?id=1et3ocpRzNH2HivHRfFd7yFqZYn6fj5DP</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1gsVSL6HWnDZnexfslmhXSJRtc5WooMiQ</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1sWHKfFXH3-qhIf8ol992tzfYk1hUBTuj</t>
-  </si>
-  <si>
-    <t>rusiyantidian@gmail.com</t>
-  </si>
-  <si>
-    <t>Dian Rusiyanti</t>
-  </si>
-  <si>
-    <t>Dian Rusiyanti. S.E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dianr.akt58@lppgurindam.com </t>
-  </si>
-  <si>
-    <t>08179830303</t>
-  </si>
-  <si>
-    <t>Jakarta 26 september 1978</t>
-  </si>
-  <si>
-    <t>RS Bhayangkara Tk.I Pusdokkes Polri</t>
-  </si>
-  <si>
-    <t>DKI JAKARTA</t>
-  </si>
-  <si>
-    <t>197909262005012007</t>
-  </si>
-  <si>
-    <t>3174016609790015</t>
-  </si>
-  <si>
-    <t>Jl. Raya bogor, Kramat jati, Jakarta timur</t>
-  </si>
-  <si>
-    <t>Rs polri</t>
-  </si>
-  <si>
-    <t>PAMIN SUB MATLOG</t>
-  </si>
-  <si>
-    <t>PENDA / III A</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1d5oFocDrwiZGez1_QobP5YL3j4zKDthp</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1S2NpMNxiapsf91hZTDHPXPxW02XkQi7A</t>
-  </si>
-  <si>
-    <t>SUYARNO</t>
-  </si>
-  <si>
-    <t>suyarno.akt58@lppgurindam.com</t>
-  </si>
-  <si>
-    <t>08128132172</t>
-  </si>
-  <si>
-    <t>MAGETAN, 18 AGUSTUS 1972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS  Bhayangkara Tk.I Pusdokkes Polri </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DkI Jakarta </t>
-  </si>
-  <si>
-    <t>197208181994031003</t>
-  </si>
-  <si>
-    <t>3175041808720009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl.RS Polri Kramatjati Jakarta Timur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUBBAG Matlog </t>
-  </si>
-  <si>
-    <t>Pamin</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1ceJCCk8t-ZGxSdDjGmGclQMKR7Y6TsAW</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1i3mjTp1s-ppXBoNAqyq5_KtWurnqqK8-</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1G70Sr-Zekz9WM_WtAoplJ8MMuSdpf8oz</t>
-  </si>
-  <si>
-    <t>alexy_okto@yahoo.com</t>
-  </si>
-  <si>
-    <t>Alexy Oktoman Djohansjah</t>
-  </si>
-  <si>
-    <t>Kombes Pol dr. Alexy Oktoman Djohansjah, SpOG, Subsp.Onk, MKes, MARS</t>
-  </si>
-  <si>
-    <t>08129466540</t>
-  </si>
-  <si>
-    <t>Jember 15 oktober 1975</t>
-  </si>
-  <si>
-    <t>Subspesialis/ Konsultan Onkologi Ginekologi</t>
-  </si>
-  <si>
-    <t>RS BHAYANGKARA Tk1 PUSDOKKES POLRI</t>
-  </si>
-  <si>
-    <t>3171041510750004</t>
-  </si>
-  <si>
-    <t>Jl. RS Polri Kramat Jati</t>
-  </si>
-  <si>
-    <t>Rumah Sakit</t>
-  </si>
-  <si>
-    <t>Ahli Utama</t>
-  </si>
-  <si>
-    <t>Komisaris Besar Polisi</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1aXF7ZQu5p8lACWSgmZj6ydj__iXav3Os</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=127oWkImNPQcipzVPRB8WrNx2VEdyoBml</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1Jvw0FRwe1xDCl1P5db8mVDDWt6G0Vl6L</t>
-  </si>
-  <si>
-    <t>muhammadbasirung45@pusdatin.belajar.id</t>
-  </si>
-  <si>
-    <t>Muhammad Romario Basirung</t>
-  </si>
-  <si>
-    <t>Muhammad Romario Basirung, S.Pd., M.Pd.</t>
-  </si>
-  <si>
-    <t>romariobasirung@gmail.com</t>
-  </si>
-  <si>
-    <t>081342051675</t>
-  </si>
-  <si>
-    <t>Parekaju, 13 Mei 1994</t>
-  </si>
-  <si>
-    <t>S2, M.Pd.</t>
-  </si>
-  <si>
-    <t>Kemendikbudristek</t>
-  </si>
-  <si>
-    <t>199405132022031007</t>
-  </si>
-  <si>
-    <t>7317111305940002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. RE Martadinata No.KM. 15.5, Cipayung, Kec. Ciputat, Kota Tangerang Selatan, Banten </t>
-  </si>
-  <si>
-    <t>Tata Kelola TIK (SPBE)</t>
-  </si>
-  <si>
-    <t>PENYELENGGARA SWAKELOLA</t>
-  </si>
-  <si>
-    <t>Penata Kelola Sistem dan Teknologi Informasi</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=16jM7QqwQvR5dUMUiBstCYAtlMkH9pnFo</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1WSpXLJPKxuxepuAAQL1FTsM2Mzsq1Fj6</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1pdfkSuogwJPqY-VUrvFmQdXWQtPw_IZp</t>
-  </si>
-  <si>
-    <t>rafaelsamuel56@gmail.com</t>
-  </si>
-  <si>
-    <t>Raffael Semuel Hetharie</t>
-  </si>
-  <si>
-    <t>Raffael Semuel Hetharie, S.Tr.Pel</t>
-  </si>
-  <si>
-    <t>081292374118</t>
-  </si>
-  <si>
-    <t>Bogor, 10 Juni 2000</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>Kementerian Perhubungan</t>
-  </si>
-  <si>
-    <t>200006102022101002</t>
-  </si>
-  <si>
-    <t>3201291006000002</t>
-  </si>
-  <si>
-    <t>Jl. Jenderal Sudirman, Distrik Kota Waisai, Kabupaten Raja Ampat</t>
-  </si>
-  <si>
-    <t>Kantor Unit Penyelenggara Pelabuhan Kelas II Raja Ampat</t>
-  </si>
-  <si>
-    <t>Pemeriksa Kesyahbandaran</t>
-  </si>
-  <si>
-    <t>Golongan 3/a</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1z8xz3RIF559ZLtzga8_uzT_s8WxDtNdo</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1NEDLZmYB5StvVXQ07aur4y8S659VvpFu</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1QDvlvl9bH9FYUek1oUaoFv3Zw46DJrnN</t>
-  </si>
-  <si>
-    <t>lukman4work@gmail.com</t>
-  </si>
-  <si>
-    <t>Lukman Yahya</t>
-  </si>
-  <si>
-    <t>Lukman Yahya, S.T</t>
-  </si>
-  <si>
-    <t>lukman.yahya@kemdikbud.go.id</t>
-  </si>
-  <si>
-    <t>08114334115</t>
-  </si>
-  <si>
-    <t>Purbalingga, 1 Maret 1986</t>
-  </si>
-  <si>
-    <t>Pusdatin Kemendikbudristek</t>
-  </si>
-  <si>
-    <t>198603012019021007</t>
-  </si>
-  <si>
-    <t>3303060103860002</t>
-  </si>
-  <si>
-    <t>Pusdatin</t>
-  </si>
-  <si>
-    <t>Manggala Informatika</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1Bk9N65ieiGjKdR4asWfJlmQY3VbjsFn4</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1rww-G1XtlLIHfEw_3xKhzZY9j1L582iY</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1_93OOXWh1aUymPjn2qlpsxxrsQ1t2g03</t>
-  </si>
-  <si>
-    <t>r.sudiana@untirta.ac.id</t>
-  </si>
-  <si>
-    <t>Ria Sudiana</t>
-  </si>
-  <si>
-    <t>Ria Sudiana, M.Si.</t>
-  </si>
-  <si>
-    <t>081808851264</t>
-  </si>
-  <si>
-    <t>Serang, 30 Januari 1981</t>
-  </si>
-  <si>
-    <t>198101302008121001</t>
-  </si>
-  <si>
-    <t>3604223001810002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FKIP Untirta Jl. Ciwaru Raya, Cipare, Kec. Serang, Kota Serang, Banten </t>
-  </si>
-  <si>
-    <t>FKIP Untirta</t>
-  </si>
-  <si>
-    <t>Wakil Dekan II</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1jhCflgUzkCyALUGo-RHj-9Zsw4XEXqjP</t>
   </si>
   <si>
-    <t>https://drive.google.com/open?id=1WmIbOPq2w3hR8uvrcsw75G5pNM9GwkTd</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1aNdVQsX2_MMBhpv8CBoHoMNATUmBuxPl</t>
-  </si>
-  <si>
-    <t>inggridwage@gmail.com</t>
-  </si>
-  <si>
-    <t>Inggrid Yosefa Jue Wage</t>
-  </si>
-  <si>
-    <t>apt. Inggrid Yosefa Jue Wage, S.Farm</t>
-  </si>
-  <si>
-    <t>082339855614</t>
-  </si>
-  <si>
-    <t>Bajawa, 02 September 1994</t>
-  </si>
-  <si>
-    <t>Rumah Sakit Umum Daerah Aeramo</t>
-  </si>
-  <si>
-    <t>Pemerintah Daerah Kabupaten Nagekeo</t>
-  </si>
-  <si>
-    <t>199409022019032020</t>
-  </si>
-  <si>
-    <t>5309074209940001</t>
-  </si>
-  <si>
-    <t>Jl. Prof. W.Z. Yohanes, Desa Aeramo, Kec. Aesesa, Kab. Nagekeo Kode Pos 86472</t>
-  </si>
-  <si>
-    <t>Apoteker Ahli Muda</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1lK769TPpJM3nrhmaHlKjlLxd0WnzoAGu</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=18ulBKU6P3Lw5f4DEfhIWey0Xo0I4A9DW</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/open?id=1ZHvXNwvwjohovOXwDSu15fp_NzLlogoZ</t>
-  </si>
-  <si>
-    <t>achirudin.afif@gmail.com</t>
-  </si>
-  <si>
-    <t>ACHIRUDIN DJAMIL AFIF</t>
-  </si>
-  <si>
-    <t>081315195657</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2453,7 +2259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2480,6 +2286,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2694,27 +2506,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD53"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="8" customWidth="1"/>
-    <col min="4" max="30" width="18.85546875" style="8" customWidth="1"/>
-    <col min="31" max="16384" width="12.5703125" style="8"/>
+    <col min="2" max="2" width="38.7109375" style="8" customWidth="1"/>
+    <col min="3" max="19" width="18.85546875" style="8" customWidth="1"/>
+    <col min="20" max="20" width="69.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="31" customWidth="1"/>
+    <col min="22" max="22" width="72.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="18.85546875" style="8" customWidth="1"/>
+    <col min="28" max="16384" width="12.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2754,10 +2569,10 @@
       <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
@@ -2766,3834 +2581,3492 @@
       <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="L2" s="9">
+        <v>99351</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="P2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="9">
-        <v>99351</v>
-      </c>
-      <c r="O2" s="9" t="s">
+      <c r="R2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="T2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="9" t="s">
+      <c r="U2" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="V2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>43</v>
-      </c>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
     </row>
-    <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="J3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="L3" s="9">
+        <v>10270</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="9">
-        <v>10270</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="S3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="U3" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="V3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
     </row>
-    <row r="4" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="13">
+        <v>20211020297</v>
+      </c>
+      <c r="I4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="L4" s="13">
+        <v>16411</v>
+      </c>
+      <c r="M4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="N4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="P4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="U4" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="13">
-        <v>20211020297</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="13">
-        <v>16411</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="X4" s="15" t="s">
-        <v>78</v>
-      </c>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
     </row>
-    <row r="5" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="13">
+        <v>20220720392</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="13">
+        <v>16411</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="13">
-        <v>20220720392</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="N5" s="13">
-        <v>16411</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>91</v>
-      </c>
+      <c r="U5" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="16"/>
       <c r="Z5" s="16"/>
       <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
     </row>
-    <row r="6" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="13">
+        <v>12710</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="Q6" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="R6" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="T6" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="U6" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="V6" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="13">
-        <v>12710</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="S6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="T6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U6" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="X6" s="15" t="s">
-        <v>111</v>
-      </c>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
       <c r="Y6" s="16"/>
       <c r="Z6" s="16"/>
       <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
     </row>
-    <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>114</v>
+        <v>98</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>116</v>
+        <v>100</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="K7" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>33</v>
+        <v>103</v>
+      </c>
+      <c r="L7" s="17">
+        <v>12710</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" s="17">
-        <v>12710</v>
+        <v>90</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="O7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="P7" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="17" t="s">
+      <c r="R7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="U7" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="V7" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="S7" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="T7" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="U7" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="V7" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="W7" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="X7" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
     </row>
-    <row r="8" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>128</v>
+        <v>110</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>33</v>
+        <v>115</v>
+      </c>
+      <c r="L8" s="13">
+        <v>97711</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="13">
-        <v>97711</v>
+        <v>116</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O8" s="13" t="s">
-        <v>135</v>
+        <v>50</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="T8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="U8" s="27" t="s">
+        <v>633</v>
       </c>
       <c r="V8" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>140</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
       <c r="Y8" s="16"/>
       <c r="Z8" s="16"/>
       <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
     </row>
-    <row r="9" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>143</v>
+        <v>122</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>145</v>
+        <v>124</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>147</v>
+        <v>126</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1791026</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="J9" s="13">
-        <v>1791026</v>
+        <v>127</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="L9" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L9" s="13">
+        <v>13340</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="N9" s="13">
-        <v>13340</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>151</v>
-      </c>
       <c r="P9" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q9" s="13" t="s">
-        <v>37</v>
+        <v>130</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>12</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="S9" s="13">
-        <v>12</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>634</v>
       </c>
       <c r="V9" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="W9" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="X9" s="15" t="s">
-        <v>155</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
     </row>
-    <row r="10" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>158</v>
+        <v>134</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>135</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>159</v>
+        <v>136</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>147</v>
+        <v>126</v>
+      </c>
+      <c r="H10" s="13">
+        <v>1794104</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="J10" s="13">
-        <v>1794104</v>
+        <v>137</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>72</v>
+        <v>138</v>
+      </c>
+      <c r="L10" s="13">
+        <v>13340</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="N10" s="13">
-        <v>13340</v>
+        <v>129</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="T10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" s="13" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="U10" s="27" t="s">
+        <v>635</v>
       </c>
       <c r="V10" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>166</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
     </row>
-    <row r="11" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>169</v>
+        <v>143</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>144</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>170</v>
+        <v>145</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="G11" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>174</v>
-      </c>
       <c r="K11" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>33</v>
+        <v>150</v>
+      </c>
+      <c r="L11" s="13">
+        <v>15414</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="N11" s="13">
-        <v>15414</v>
+        <v>151</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="P11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="R11" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q11" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>178</v>
-      </c>
       <c r="S11" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="T11" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T11" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="U11" s="27" t="s">
+        <v>636</v>
       </c>
       <c r="V11" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="W11" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="X11" s="15" t="s">
-        <v>182</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
     </row>
-    <row r="12" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>185</v>
+        <v>157</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>158</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>187</v>
+        <v>159</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>33</v>
+        <v>89</v>
+      </c>
+      <c r="L12" s="13">
+        <v>12710</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="13">
-        <v>12710</v>
+        <v>90</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="13" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="R12" s="13" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="S12" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="T12" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="U12" s="27" t="s">
+        <v>637</v>
       </c>
       <c r="V12" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="W12" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>194</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
     </row>
-    <row r="13" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>197</v>
+        <v>166</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>198</v>
+        <v>168</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="G13" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="I13" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>202</v>
-      </c>
       <c r="K13" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="L13" s="17" t="s">
-        <v>33</v>
+        <v>173</v>
+      </c>
+      <c r="L13" s="17">
+        <v>77554</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="N13" s="17">
-        <v>77554</v>
+        <v>174</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>32</v>
       </c>
       <c r="O13" s="17" t="s">
-        <v>205</v>
+        <v>50</v>
       </c>
       <c r="P13" s="17" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="17" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>59</v>
+        <v>94</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="U13" s="28" t="s">
+        <v>638</v>
       </c>
       <c r="V13" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="W13" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="X13" s="19" t="s">
-        <v>210</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
     </row>
-    <row r="14" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>213</v>
+        <v>180</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>181</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>214</v>
+        <v>182</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="G14" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>218</v>
-      </c>
       <c r="K14" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>33</v>
+        <v>187</v>
+      </c>
+      <c r="L14" s="9">
+        <v>15414</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="N14" s="9">
-        <v>15414</v>
+        <v>188</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="P14" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="R14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>222</v>
-      </c>
       <c r="S14" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="U14" s="26" t="s">
+        <v>639</v>
       </c>
       <c r="V14" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="X14" s="11" t="s">
-        <v>226</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
       <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
     </row>
-    <row r="15" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="I15" s="17" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="L15" s="17" t="s">
-        <v>33</v>
+        <v>202</v>
+      </c>
+      <c r="L15" s="17">
+        <v>10270</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="N15" s="17">
-        <v>10270</v>
+        <v>203</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="O15" s="17" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="P15" s="17" t="s">
-        <v>55</v>
+        <v>204</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="R15" s="17" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="T15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="T15" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="U15" s="28" t="s">
+        <v>640</v>
       </c>
       <c r="V15" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>242</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
     </row>
-    <row r="16" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>245</v>
+        <v>208</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>246</v>
+        <v>210</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>247</v>
+        <v>174</v>
       </c>
       <c r="G16" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>249</v>
-      </c>
       <c r="K16" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="L16" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="L16" s="13">
+        <v>77554</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="N16" s="13">
-        <v>77554</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>205</v>
-      </c>
       <c r="P16" s="13" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="13" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="R16" s="13" t="s">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="T16" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>59</v>
+        <v>94</v>
+      </c>
+      <c r="T16" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="U16" s="27" t="s">
+        <v>641</v>
       </c>
       <c r="V16" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="W16" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="X16" s="15" t="s">
-        <v>256</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
       <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
     </row>
-    <row r="17" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>259</v>
+        <v>220</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>221</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>261</v>
+        <v>222</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="G17" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>264</v>
-      </c>
       <c r="K17" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>33</v>
+        <v>226</v>
+      </c>
+      <c r="L17" s="13">
+        <v>16680</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="N17" s="13">
-        <v>16680</v>
+        <v>227</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="O17" s="13" t="s">
-        <v>267</v>
+        <v>50</v>
       </c>
       <c r="P17" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q17" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="R17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="R17" s="13" t="s">
-        <v>268</v>
-      </c>
       <c r="S17" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="T17" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U17" s="13" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T17" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="U17" s="27" t="s">
+        <v>642</v>
       </c>
       <c r="V17" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="W17" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>272</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
     </row>
-    <row r="18" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>274</v>
+        <v>233</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>234</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>275</v>
+        <v>235</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>236</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>278</v>
+        <v>238</v>
+      </c>
+      <c r="H18" s="9">
+        <v>83123190</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="J18" s="9">
-        <v>83123190</v>
+        <v>239</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>72</v>
+        <v>240</v>
+      </c>
+      <c r="L18" s="9">
+        <v>10340</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="N18" s="9">
-        <v>10340</v>
+        <v>241</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="T18" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="U18" s="26" t="s">
+        <v>643</v>
       </c>
       <c r="V18" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="X18" s="11" t="s">
-        <v>286</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
     </row>
-    <row r="19" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>289</v>
+        <v>246</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>247</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>291</v>
+        <v>248</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>296</v>
+        <v>29</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>33</v>
+        <v>254</v>
+      </c>
+      <c r="L19" s="13">
+        <v>42118</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="N19" s="13">
-        <v>42118</v>
+        <v>251</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="O19" s="13" t="s">
-        <v>295</v>
+        <v>50</v>
       </c>
       <c r="P19" s="13" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="13" t="s">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="R19" s="13" t="s">
-        <v>300</v>
+        <v>53</v>
       </c>
       <c r="S19" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="T19" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="U19" s="13" t="s">
-        <v>59</v>
+        <v>258</v>
+      </c>
+      <c r="T19" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>644</v>
       </c>
       <c r="V19" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="W19" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>305</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
       <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
     </row>
-    <row r="20" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>306</v>
+        <v>261</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>311</v>
+        <v>262</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>312</v>
+        <v>266</v>
+      </c>
+      <c r="H20" s="21">
+        <v>1.6521605198100998E+17</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="J20" s="21">
-        <v>1.6521605198100998E+17</v>
+        <v>267</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>72</v>
+        <v>268</v>
+      </c>
+      <c r="L20" s="9">
+        <v>20152</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="N20" s="9">
-        <v>20152</v>
+        <v>269</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>316</v>
+        <v>50</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>56</v>
+        <v>271</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>317</v>
+        <v>53</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="V20" s="11" t="s">
-        <v>319</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="T20" s="12"/>
+      <c r="U20" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
     </row>
-    <row r="21" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>322</v>
+        <v>273</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>274</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>323</v>
+        <v>275</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>325</v>
+        <v>43</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="J21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="L21" s="13">
+        <v>13350</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="N21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="L21" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="N21" s="13">
-        <v>13350</v>
-      </c>
       <c r="O21" s="13" t="s">
-        <v>325</v>
+        <v>67</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="Q21" s="13" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="T21" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V21" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="W21" s="15" t="s">
-        <v>330</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="T21" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>646</v>
+      </c>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
     </row>
-    <row r="22" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>333</v>
+        <v>282</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>283</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>334</v>
+        <v>284</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>335</v>
+        <v>286</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>336</v>
+        <v>287</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>337</v>
+        <v>288</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>339</v>
+        <v>29</v>
       </c>
       <c r="K22" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>33</v>
+        <v>290</v>
+      </c>
+      <c r="L22" s="13">
+        <v>38211</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="N22" s="13">
-        <v>38211</v>
+        <v>286</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O22" s="13" t="s">
-        <v>337</v>
+        <v>91</v>
       </c>
       <c r="P22" s="13" t="s">
-        <v>55</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>342</v>
+        <v>36</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T22" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="U22" s="27" t="s">
+        <v>647</v>
       </c>
       <c r="V22" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="W22" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="X22" s="15" t="s">
-        <v>346</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
       <c r="AA22" s="16"/>
-      <c r="AB22" s="16"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
     </row>
-    <row r="23" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>349</v>
+        <v>296</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>297</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>351</v>
+        <v>298</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>352</v>
+        <v>299</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>353</v>
+        <v>301</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>355</v>
+        <v>29</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="L23" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="L23" s="13">
+        <v>38211</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="N23" s="13">
-        <v>38211</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>337</v>
-      </c>
       <c r="P23" s="13" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>358</v>
+        <v>36</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="T23" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U23" s="13" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="U23" s="27" t="s">
+        <v>648</v>
       </c>
       <c r="V23" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="W23" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>362</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
     </row>
-    <row r="24" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
-        <v>363</v>
+        <v>308</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>365</v>
+        <v>309</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>366</v>
+        <v>311</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>147</v>
+        <v>126</v>
+      </c>
+      <c r="H24" s="13">
+        <v>1287027</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="J24" s="13">
-        <v>1287027</v>
+        <v>312</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="K24" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>72</v>
+        <v>313</v>
+      </c>
+      <c r="L24" s="13">
+        <v>13340</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="N24" s="13">
-        <v>13340</v>
+        <v>129</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O24" s="13" t="s">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="P24" s="13" t="s">
-        <v>55</v>
+        <v>314</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="T24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U24" s="13" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="T24" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="U24" s="27" t="s">
+        <v>649</v>
       </c>
       <c r="V24" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="W24" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="X24" s="15" t="s">
-        <v>374</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
       <c r="Y24" s="16"/>
       <c r="Z24" s="16"/>
       <c r="AA24" s="16"/>
-      <c r="AB24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
     </row>
-    <row r="25" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>377</v>
+        <v>319</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>320</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>378</v>
+        <v>321</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>379</v>
+        <v>322</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>381</v>
+        <v>29</v>
       </c>
       <c r="K25" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="L25" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="L25" s="13">
+        <v>15411</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="N25" s="13">
-        <v>15411</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>384</v>
-      </c>
       <c r="P25" s="13" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="13" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
       <c r="R25" s="13" t="s">
-        <v>385</v>
+        <v>36</v>
       </c>
       <c r="S25" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="T25" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U25" s="13" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T25" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="U25" s="27" t="s">
+        <v>650</v>
       </c>
       <c r="V25" s="15" t="s">
-        <v>387</v>
-      </c>
-      <c r="W25" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>389</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
       <c r="Y25" s="16"/>
       <c r="Z25" s="16"/>
       <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
     </row>
-    <row r="26" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>392</v>
+        <v>332</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>333</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>393</v>
+        <v>334</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>394</v>
+        <v>335</v>
       </c>
       <c r="G26" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="H26" s="13">
+        <v>74040785</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="J26" s="13">
-        <v>74040785</v>
-      </c>
       <c r="K26" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>33</v>
+        <v>338</v>
+      </c>
+      <c r="L26" s="13">
+        <v>13510</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="N26" s="13">
-        <v>13510</v>
+        <v>339</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="O26" s="13" t="s">
-        <v>399</v>
+        <v>91</v>
       </c>
       <c r="P26" s="13" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>105</v>
+        <v>341</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="T26" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U26" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="T26" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="U26" s="27" t="s">
+        <v>651</v>
       </c>
       <c r="V26" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="W26" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="X26" s="15" t="s">
-        <v>404</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16"/>
-      <c r="AB26" s="16"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
     </row>
-    <row r="27" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>407</v>
+        <v>345</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>408</v>
+        <v>347</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>409</v>
+        <v>348</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>98</v>
+        <v>349</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>410</v>
+        <v>350</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>411</v>
+        <v>351</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>412</v>
+        <v>29</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="L27" s="13" t="s">
-        <v>33</v>
+        <v>352</v>
+      </c>
+      <c r="L27" s="13">
+        <v>13510</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="N27" s="13">
-        <v>13510</v>
+        <v>353</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>415</v>
+        <v>50</v>
       </c>
       <c r="P27" s="13" t="s">
-        <v>55</v>
+        <v>354</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>56</v>
+        <v>355</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>416</v>
+        <v>53</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="T27" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U27" s="13" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="T27" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>652</v>
       </c>
       <c r="V27" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="W27" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="X27" s="15" t="s">
-        <v>420</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
       <c r="AA27" s="16"/>
-      <c r="AB27" s="16"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
     </row>
-    <row r="28" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>421</v>
+        <v>358</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>423</v>
+        <v>359</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>360</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>424</v>
+        <v>361</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>98</v>
+        <v>363</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>426</v>
+        <v>364</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>427</v>
+        <v>365</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="L28" s="9" t="s">
-        <v>33</v>
+        <v>366</v>
+      </c>
+      <c r="L28" s="9">
+        <v>13510</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="N28" s="9">
-        <v>13510</v>
+        <v>362</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>426</v>
+        <v>50</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>55</v>
+        <v>367</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>56</v>
+        <v>368</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>431</v>
+        <v>53</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="U28" s="26" t="s">
+        <v>653</v>
       </c>
       <c r="V28" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="X28" s="11" t="s">
-        <v>435</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
     </row>
-    <row r="29" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>436</v>
+        <v>371</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>438</v>
+        <v>372</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>373</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>440</v>
+        <v>374</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>442</v>
+        <v>376</v>
+      </c>
+      <c r="H29" s="13">
+        <v>76040898</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="J29" s="13">
-        <v>76040898</v>
+        <v>377</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>33</v>
+        <v>378</v>
+      </c>
+      <c r="L29" s="13">
+        <v>13510</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="N29" s="13">
-        <v>13510</v>
+        <v>376</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>242</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>443</v>
+        <v>50</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>283</v>
+        <v>379</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>56</v>
+        <v>380</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>446</v>
+        <v>36</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="T29" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
       <c r="V29" s="16"/>
       <c r="W29" s="16"/>
       <c r="X29" s="16"/>
       <c r="Y29" s="16"/>
       <c r="Z29" s="16"/>
       <c r="AA29" s="16"/>
-      <c r="AB29" s="16"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
     </row>
-    <row r="30" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
-        <v>448</v>
+        <v>381</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>449</v>
+        <v>382</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>383</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>450</v>
+        <v>384</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>277</v>
+        <v>386</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>452</v>
+        <v>387</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>454</v>
+        <v>29</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="L30" s="13" t="s">
-        <v>33</v>
+        <v>389</v>
+      </c>
+      <c r="L30" s="13">
+        <v>13510</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="N30" s="13">
-        <v>13510</v>
+        <v>390</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>457</v>
+        <v>50</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>55</v>
+        <v>391</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>56</v>
+        <v>392</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>458</v>
+        <v>36</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="T30" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U30" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="T30" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="U30" s="27" t="s">
+        <v>654</v>
       </c>
       <c r="V30" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="W30" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="X30" s="15" t="s">
-        <v>462</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
       <c r="Y30" s="16"/>
       <c r="Z30" s="16"/>
       <c r="AA30" s="16"/>
-      <c r="AB30" s="16"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
     </row>
-    <row r="31" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
-        <v>463</v>
+        <v>395</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>464</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>465</v>
+        <v>396</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>397</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>467</v>
+        <v>398</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>468</v>
+        <v>399</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>98</v>
+        <v>363</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>470</v>
+        <v>29</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>33</v>
+        <v>402</v>
+      </c>
+      <c r="L31" s="13">
+        <v>13510</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="N31" s="13">
-        <v>13510</v>
+        <v>403</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>473</v>
+        <v>50</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>55</v>
+        <v>404</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>56</v>
+        <v>405</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>474</v>
+        <v>53</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="T31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U31" s="13" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="U31" s="27" t="s">
+        <v>655</v>
       </c>
       <c r="V31" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="W31" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="X31" s="15" t="s">
-        <v>478</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
       <c r="Y31" s="16"/>
       <c r="Z31" s="16"/>
       <c r="AA31" s="16"/>
-      <c r="AB31" s="16"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
     </row>
-    <row r="32" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>479</v>
+        <v>408</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>480</v>
+        <v>409</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>410</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>482</v>
+        <v>411</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="I32" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="H32" s="6">
+        <v>72120374</v>
+      </c>
+      <c r="I32" s="6">
+        <v>320102551272009</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="L32" s="6">
+        <v>13510</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T32" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="U32" s="29" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="L33" s="1">
+        <v>13510</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="J32" s="6">
-        <v>72120374</v>
-      </c>
-      <c r="K32" s="6">
-        <v>320102551272009</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="N32" s="6">
-        <v>13510</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R32" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="S32" s="6" t="s">
-        <v>488</v>
-      </c>
-      <c r="T32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="V32" s="23" t="s">
-        <v>489</v>
-      </c>
-      <c r="W32" s="23" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="N33" s="1">
-        <v>13510</v>
+      <c r="N33" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>501</v>
+        <v>50</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>55</v>
+        <v>428</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>56</v>
+        <v>429</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>502</v>
+        <v>36</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="T33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="T33" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="U33" s="30" t="s">
+        <v>657</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="X33" s="3" t="s">
-        <v>506</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
     </row>
-    <row r="34" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>507</v>
+        <v>432</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>509</v>
+        <v>433</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>434</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>511</v>
+        <v>435</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>512</v>
+        <v>436</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>513</v>
+        <v>437</v>
+      </c>
+      <c r="H34" s="24">
+        <v>1445070281010800</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="J34" s="24">
-        <v>1445070281010800</v>
+        <v>438</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>72</v>
+        <v>439</v>
+      </c>
+      <c r="L34" s="6">
+        <v>20152</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="N34" s="6">
-        <v>20152</v>
+        <v>269</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>316</v>
+        <v>67</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>55</v>
+        <v>440</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>75</v>
+        <v>441</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>517</v>
+        <v>53</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="T34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U34" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>519</v>
+        <v>442</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>521</v>
+        <v>443</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>444</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>522</v>
+        <v>445</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>523</v>
+        <v>446</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>98</v>
+        <v>363</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>524</v>
+        <v>447</v>
       </c>
       <c r="I35" s="17" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>525</v>
+        <v>29</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="L35" s="17" t="s">
-        <v>33</v>
+        <v>449</v>
+      </c>
+      <c r="L35" s="17">
+        <v>13510</v>
       </c>
       <c r="M35" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="N35" s="17">
-        <v>13510</v>
+        <v>450</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="O35" s="17" t="s">
-        <v>528</v>
+        <v>50</v>
       </c>
       <c r="P35" s="17" t="s">
-        <v>55</v>
+        <v>451</v>
       </c>
       <c r="Q35" s="17" t="s">
-        <v>56</v>
+        <v>452</v>
       </c>
       <c r="R35" s="17" t="s">
-        <v>529</v>
+        <v>53</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>530</v>
-      </c>
-      <c r="T35" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U35" s="17" t="s">
-        <v>59</v>
+        <v>35</v>
+      </c>
+      <c r="T35" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="U35" s="28" t="s">
+        <v>658</v>
       </c>
       <c r="V35" s="19" t="s">
-        <v>531</v>
-      </c>
-      <c r="W35" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="X35" s="19" t="s">
-        <v>533</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
     </row>
-    <row r="36" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>534</v>
+        <v>455</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>535</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>536</v>
+        <v>456</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>457</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>534</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>537</v>
+        <v>458</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>538</v>
+        <v>326</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>98</v>
+        <v>459</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>384</v>
+        <v>460</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>539</v>
+        <v>461</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>540</v>
+        <v>29</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>541</v>
-      </c>
-      <c r="L36" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="L36" s="17">
+        <v>11510</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="N36" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="O36" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M36" s="17" t="s">
-        <v>542</v>
-      </c>
-      <c r="N36" s="17">
-        <v>11510</v>
-      </c>
-      <c r="O36" s="17" t="s">
-        <v>384</v>
-      </c>
       <c r="P36" s="17" t="s">
-        <v>55</v>
+        <v>463</v>
       </c>
       <c r="Q36" s="17" t="s">
-        <v>37</v>
+        <v>464</v>
       </c>
       <c r="R36" s="17" t="s">
-        <v>543</v>
+        <v>36</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>544</v>
-      </c>
-      <c r="T36" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="U36" s="17" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T36" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="U36" s="28" t="s">
+        <v>659</v>
       </c>
       <c r="V36" s="19" t="s">
-        <v>545</v>
-      </c>
-      <c r="W36" s="19" t="s">
-        <v>546</v>
-      </c>
-      <c r="X36" s="19" t="s">
-        <v>547</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
     </row>
-    <row r="37" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>548</v>
+        <v>467</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>549</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>550</v>
+        <v>468</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>469</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>548</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>551</v>
+        <v>470</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>25</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>552</v>
+        <v>250</v>
       </c>
       <c r="G37" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="J37" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>553</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>554</v>
-      </c>
       <c r="K37" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="L37" s="17" t="s">
-        <v>33</v>
+        <v>474</v>
+      </c>
+      <c r="L37" s="17">
+        <v>42118</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="N37" s="17">
-        <v>42118</v>
+        <v>475</v>
+      </c>
+      <c r="N37" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="O37" s="17" t="s">
-        <v>557</v>
+        <v>91</v>
       </c>
       <c r="P37" s="17" t="s">
-        <v>55</v>
+        <v>476</v>
       </c>
       <c r="Q37" s="17" t="s">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="R37" s="17" t="s">
-        <v>558</v>
+        <v>36</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="T37" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="U37" s="17" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T37" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="U37" s="28" t="s">
+        <v>660</v>
       </c>
       <c r="V37" s="19" t="s">
-        <v>560</v>
-      </c>
-      <c r="W37" s="19" t="s">
-        <v>561</v>
-      </c>
-      <c r="X37" s="19" t="s">
-        <v>562</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
     </row>
-    <row r="38" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>565</v>
+        <v>481</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>482</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>566</v>
+        <v>483</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>567</v>
+        <v>484</v>
       </c>
       <c r="G38" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H38" s="9">
+        <v>79052206</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H38" s="9" t="s">
-        <v>568</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="J38" s="9">
-        <v>79052206</v>
-      </c>
       <c r="K38" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="L38" s="9" t="s">
-        <v>33</v>
+        <v>486</v>
+      </c>
+      <c r="L38" s="9">
+        <v>12770</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="N38" s="9">
-        <v>12770</v>
+        <v>484</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>568</v>
+        <v>487</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>299</v>
+        <v>488</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>571</v>
+        <v>489</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>572</v>
+        <v>36</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="T38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U38" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="T38" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="U38" s="26" t="s">
+        <v>661</v>
       </c>
       <c r="V38" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="W38" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="X38" s="11" t="s">
-        <v>576</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
       <c r="Y38" s="12"/>
       <c r="Z38" s="12"/>
       <c r="AA38" s="12"/>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
     </row>
-    <row r="39" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
-        <v>577</v>
+        <v>492</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>579</v>
+        <v>493</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>494</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>580</v>
+        <v>495</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>581</v>
+        <v>250</v>
       </c>
       <c r="G39" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="J39" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>582</v>
-      </c>
       <c r="K39" s="13" t="s">
-        <v>583</v>
-      </c>
-      <c r="L39" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="L39" s="13">
+        <v>42418</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O39" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M39" s="13" t="s">
-        <v>584</v>
-      </c>
-      <c r="N39" s="13">
-        <v>42418</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>585</v>
-      </c>
       <c r="P39" s="13" t="s">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="Q39" s="13" t="s">
-        <v>37</v>
+        <v>501</v>
       </c>
       <c r="R39" s="13" t="s">
-        <v>586</v>
+        <v>36</v>
       </c>
       <c r="S39" s="13" t="s">
-        <v>587</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U39" s="13" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T39" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="U39" s="27" t="s">
+        <v>662</v>
       </c>
       <c r="V39" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="W39" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="X39" s="15" t="s">
-        <v>590</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
       <c r="Y39" s="16"/>
       <c r="Z39" s="16"/>
       <c r="AA39" s="16"/>
-      <c r="AB39" s="16"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
     </row>
-    <row r="40" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
-        <v>591</v>
+        <v>504</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>592</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>593</v>
+        <v>505</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>506</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>594</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>595</v>
+        <v>507</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>596</v>
+        <v>376</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>443</v>
+        <v>376</v>
+      </c>
+      <c r="H40" s="13">
+        <v>69050540</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="J40" s="13">
-        <v>69050540</v>
+        <v>508</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>597</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>72</v>
+        <v>509</v>
+      </c>
+      <c r="L40" s="13">
+        <v>13510</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="N40" s="13">
-        <v>13510</v>
+        <v>510</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O40" s="13" t="s">
-        <v>599</v>
+        <v>50</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>55</v>
+        <v>511</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>56</v>
+        <v>512</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>600</v>
+        <v>36</v>
       </c>
       <c r="S40" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="T40" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U40" s="13" t="s">
-        <v>40</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
       <c r="V40" s="16"/>
       <c r="W40" s="16"/>
       <c r="X40" s="16"/>
       <c r="Y40" s="16"/>
       <c r="Z40" s="16"/>
       <c r="AA40" s="16"/>
-      <c r="AB40" s="16"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
     </row>
-    <row r="41" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
-        <v>602</v>
+        <v>513</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>604</v>
+        <v>514</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>515</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>602</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>605</v>
+        <v>516</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>606</v>
+        <v>517</v>
       </c>
       <c r="G41" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="H41" s="13">
+        <v>80090962</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="J41" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>607</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="J41" s="13">
-        <v>80090962</v>
-      </c>
       <c r="K41" s="13" t="s">
-        <v>608</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>33</v>
+        <v>519</v>
+      </c>
+      <c r="L41" s="13">
+        <v>13510</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>609</v>
-      </c>
-      <c r="N41" s="13">
-        <v>13510</v>
+        <v>520</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>610</v>
+        <v>50</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>55</v>
+        <v>521</v>
       </c>
       <c r="Q41" s="13" t="s">
-        <v>56</v>
+        <v>489</v>
       </c>
       <c r="R41" s="13" t="s">
-        <v>611</v>
+        <v>36</v>
       </c>
       <c r="S41" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="T41" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U41" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="T41" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="U41" s="27" t="s">
+        <v>663</v>
       </c>
       <c r="V41" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="W41" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="X41" s="15" t="s">
-        <v>614</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
       <c r="Y41" s="16"/>
       <c r="Z41" s="16"/>
       <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
     </row>
-    <row r="42" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>616</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>617</v>
+        <v>525</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>526</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>618</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>619</v>
+        <v>527</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>620</v>
+        <v>528</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>98</v>
+        <v>529</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>621</v>
+        <v>530</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>622</v>
+        <v>531</v>
       </c>
       <c r="J42" s="13" t="s">
-        <v>623</v>
+        <v>29</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>33</v>
+        <v>532</v>
+      </c>
+      <c r="L42" s="13">
+        <v>13510</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>625</v>
-      </c>
-      <c r="N42" s="13">
-        <v>13510</v>
+        <v>533</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>626</v>
+        <v>50</v>
       </c>
       <c r="P42" s="13" t="s">
-        <v>55</v>
+        <v>534</v>
       </c>
       <c r="Q42" s="13" t="s">
-        <v>56</v>
+        <v>535</v>
       </c>
       <c r="R42" s="13" t="s">
-        <v>627</v>
+        <v>53</v>
       </c>
       <c r="S42" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="T42" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U42" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="V42" s="15" t="s">
-        <v>629</v>
-      </c>
-      <c r="W42" s="15" t="s">
-        <v>630</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="T42" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="U42" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
       <c r="AA42" s="16"/>
-      <c r="AB42" s="16"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="16"/>
     </row>
-    <row r="43" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
-        <v>405</v>
+        <v>344</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>631</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>631</v>
+        <v>537</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>538</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>632</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>633</v>
+        <v>539</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>634</v>
+        <v>540</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>277</v>
+        <v>541</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>635</v>
+        <v>542</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>636</v>
+        <v>543</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>637</v>
+        <v>29</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>33</v>
+        <v>544</v>
+      </c>
+      <c r="L43" s="13">
+        <v>13510</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="N43" s="13">
-        <v>13510</v>
+        <v>545</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O43" s="13" t="s">
-        <v>640</v>
+        <v>50</v>
       </c>
       <c r="P43" s="13" t="s">
-        <v>55</v>
+        <v>546</v>
       </c>
       <c r="Q43" s="13" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>641</v>
+        <v>36</v>
       </c>
       <c r="S43" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="T43" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="T43" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="U43" s="27" t="s">
+        <v>665</v>
       </c>
       <c r="V43" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="W43" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>644</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
       <c r="Z43" s="16"/>
       <c r="AA43" s="16"/>
-      <c r="AB43" s="16"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
     </row>
-    <row r="44" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>645</v>
+        <v>549</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>646</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>647</v>
+        <v>550</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>551</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>648</v>
+        <v>552</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>553</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>649</v>
+        <v>554</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>650</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>651</v>
+        <v>363</v>
+      </c>
+      <c r="H44" s="13">
+        <v>75100922</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="J44" s="13">
-        <v>75100922</v>
+        <v>555</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>652</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>72</v>
+        <v>556</v>
+      </c>
+      <c r="L44" s="13">
+        <v>13510</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>653</v>
-      </c>
-      <c r="N44" s="13">
-        <v>13510</v>
+        <v>557</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>654</v>
+        <v>33</v>
       </c>
       <c r="P44" s="13" t="s">
-        <v>55</v>
+        <v>558</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>37</v>
+        <v>559</v>
       </c>
       <c r="R44" s="13" t="s">
-        <v>655</v>
+        <v>36</v>
       </c>
       <c r="S44" s="13" t="s">
-        <v>656</v>
-      </c>
-      <c r="T44" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U44" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="T44" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="U44" s="27" t="s">
+        <v>666</v>
       </c>
       <c r="V44" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="W44" s="15" t="s">
-        <v>658</v>
-      </c>
-      <c r="X44" s="15" t="s">
-        <v>659</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
       <c r="Y44" s="16"/>
       <c r="Z44" s="16"/>
       <c r="AA44" s="16"/>
-      <c r="AB44" s="16"/>
-      <c r="AC44" s="16"/>
-      <c r="AD44" s="16"/>
     </row>
-    <row r="45" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
-        <v>660</v>
+        <v>562</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>661</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>662</v>
+        <v>563</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>664</v>
+        <v>565</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>566</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>665</v>
+        <v>326</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>666</v>
+        <v>567</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>384</v>
+        <v>568</v>
       </c>
       <c r="I45" s="13" t="s">
+        <v>569</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="L45" s="13">
+        <v>15411</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="T45" s="25" t="s">
+        <v>574</v>
+      </c>
+      <c r="U45" s="27" t="s">
         <v>667</v>
       </c>
-      <c r="J45" s="13" t="s">
-        <v>668</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>669</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M45" s="13" t="s">
-        <v>670</v>
-      </c>
-      <c r="N45" s="13">
-        <v>15411</v>
-      </c>
-      <c r="O45" s="13" t="s">
-        <v>671</v>
-      </c>
-      <c r="P45" s="13" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q45" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R45" s="13" t="s">
-        <v>673</v>
-      </c>
-      <c r="S45" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="T45" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U45" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="V45" s="15" t="s">
-        <v>674</v>
-      </c>
-      <c r="W45" s="25" t="s">
-        <v>675</v>
-      </c>
-      <c r="X45" s="15" t="s">
-        <v>676</v>
-      </c>
+        <v>575</v>
+      </c>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
       <c r="Y45" s="16"/>
       <c r="Z45" s="16"/>
       <c r="AA45" s="16"/>
-      <c r="AB45" s="16"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
     </row>
-    <row r="46" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>677</v>
+        <v>576</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>678</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>679</v>
+        <v>577</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>578</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>677</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>680</v>
+        <v>579</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>580</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>681</v>
+        <v>581</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>682</v>
+        <v>43</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>683</v>
+        <v>582</v>
       </c>
       <c r="I46" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="L46" s="13">
+        <v>98471</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="N46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J46" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>685</v>
-      </c>
-      <c r="L46" s="13" t="s">
+      <c r="O46" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M46" s="13" t="s">
-        <v>686</v>
-      </c>
-      <c r="N46" s="13">
-        <v>98471</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>687</v>
-      </c>
       <c r="P46" s="13" t="s">
-        <v>55</v>
+        <v>586</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>37</v>
+        <v>587</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>688</v>
+        <v>36</v>
       </c>
       <c r="S46" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="T46" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="U46" s="13" t="s">
-        <v>40</v>
+        <v>258</v>
+      </c>
+      <c r="T46" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="U46" s="27" t="s">
+        <v>668</v>
       </c>
       <c r="V46" s="15" t="s">
-        <v>690</v>
-      </c>
-      <c r="W46" s="15" t="s">
-        <v>691</v>
-      </c>
-      <c r="X46" s="15" t="s">
-        <v>692</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
       <c r="Y46" s="16"/>
       <c r="Z46" s="16"/>
       <c r="AA46" s="16"/>
-      <c r="AB46" s="16"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
     </row>
-    <row r="47" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>693</v>
+        <v>590</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>695</v>
+        <v>591</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>592</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>697</v>
+        <v>593</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>698</v>
+        <v>594</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>98</v>
+        <v>567</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>699</v>
+        <v>595</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>667</v>
+        <v>596</v>
       </c>
       <c r="J47" s="13" t="s">
-        <v>700</v>
+        <v>29</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>701</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>33</v>
+        <v>462</v>
+      </c>
+      <c r="L47" s="13">
+        <v>15411</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="N47" s="13">
-        <v>15411</v>
+        <v>597</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="O47" s="13" t="s">
-        <v>702</v>
+        <v>91</v>
       </c>
       <c r="P47" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q47" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="R47" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="Q47" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="R47" s="13" t="s">
-        <v>703</v>
-      </c>
       <c r="S47" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="T47" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U47" s="13" t="s">
-        <v>40</v>
+        <v>94</v>
+      </c>
+      <c r="T47" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="U47" s="27" t="s">
+        <v>669</v>
       </c>
       <c r="V47" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="W47" s="15" t="s">
-        <v>705</v>
-      </c>
-      <c r="X47" s="15" t="s">
-        <v>706</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
       <c r="AA47" s="16"/>
-      <c r="AB47" s="16"/>
-      <c r="AC47" s="16"/>
-      <c r="AD47" s="16"/>
     </row>
-    <row r="48" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
-        <v>707</v>
+        <v>601</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>708</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>709</v>
+        <v>602</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>603</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>710</v>
+        <v>604</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>711</v>
+        <v>250</v>
       </c>
       <c r="G48" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>606</v>
+      </c>
+      <c r="J48" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="J48" s="13" t="s">
-        <v>712</v>
-      </c>
       <c r="K48" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="L48" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="L48" s="13">
+        <v>42117</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="O48" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="M48" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="N48" s="13">
-        <v>42117</v>
-      </c>
-      <c r="O48" s="13" t="s">
-        <v>715</v>
-      </c>
       <c r="P48" s="13" t="s">
-        <v>299</v>
+        <v>609</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>37</v>
+        <v>477</v>
       </c>
       <c r="R48" s="13" t="s">
-        <v>716</v>
+        <v>36</v>
       </c>
       <c r="S48" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="T48" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="U48" s="13" t="s">
-        <v>40</v>
+        <v>258</v>
+      </c>
+      <c r="T48" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="U48" s="27" t="s">
+        <v>670</v>
       </c>
       <c r="V48" s="15" t="s">
-        <v>717</v>
-      </c>
-      <c r="W48" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="X48" s="15" t="s">
-        <v>719</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
       <c r="Y48" s="16"/>
       <c r="Z48" s="16"/>
       <c r="AA48" s="16"/>
-      <c r="AB48" s="16"/>
-      <c r="AC48" s="16"/>
-      <c r="AD48" s="16"/>
     </row>
-    <row r="49" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>720</v>
+        <v>612</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>722</v>
+        <v>613</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>614</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>723</v>
+        <v>615</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>724</v>
+        <v>616</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>98</v>
+        <v>617</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>725</v>
+        <v>618</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>726</v>
+        <v>619</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>727</v>
+        <v>29</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>33</v>
+        <v>620</v>
+      </c>
+      <c r="L49" s="13">
+        <v>86472</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="N49" s="13">
-        <v>86472</v>
+        <v>616</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>255</v>
       </c>
       <c r="O49" s="13" t="s">
-        <v>725</v>
+        <v>91</v>
       </c>
       <c r="P49" s="13" t="s">
-        <v>299</v>
+        <v>621</v>
       </c>
       <c r="Q49" s="13" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="R49" s="13" t="s">
-        <v>730</v>
+        <v>53</v>
       </c>
       <c r="S49" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="T49" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="U49" s="13" t="s">
-        <v>59</v>
+        <v>94</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="U49" s="27" t="s">
+        <v>671</v>
       </c>
       <c r="V49" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="W49" s="15" t="s">
-        <v>732</v>
-      </c>
-      <c r="X49" s="15" t="s">
-        <v>733</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
       <c r="Y49" s="16"/>
       <c r="Z49" s="16"/>
       <c r="AA49" s="16"/>
-      <c r="AB49" s="16"/>
-      <c r="AC49" s="16"/>
-      <c r="AD49" s="16"/>
     </row>
-    <row r="50" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="C50" s="6"/>
+        <v>624</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="22" t="s">
+        <v>625</v>
+      </c>
       <c r="D50" s="6"/>
-      <c r="E50" s="22" t="s">
-        <v>736</v>
-      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -6609,12 +6082,10 @@
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
+      <c r="U50" s="5"/>
       <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
     </row>
-    <row r="51" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -6635,12 +6106,10 @@
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
+      <c r="U51" s="5"/>
       <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
     </row>
-    <row r="52" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -6661,12 +6130,10 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
+      <c r="U52" s="5"/>
       <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
     </row>
-    <row r="53" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -6687,142 +6154,140 @@
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
+      <c r="U53" s="5"/>
       <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1"/>
-    <hyperlink ref="W2" r:id="rId2"/>
-    <hyperlink ref="X2" r:id="rId3"/>
-    <hyperlink ref="V3" r:id="rId4"/>
-    <hyperlink ref="W3" r:id="rId5"/>
-    <hyperlink ref="X3" r:id="rId6"/>
-    <hyperlink ref="V4" r:id="rId7"/>
-    <hyperlink ref="W4" r:id="rId8"/>
-    <hyperlink ref="X4" r:id="rId9"/>
-    <hyperlink ref="V5" r:id="rId10"/>
-    <hyperlink ref="W5" r:id="rId11"/>
-    <hyperlink ref="V6" r:id="rId12"/>
-    <hyperlink ref="W6" r:id="rId13"/>
-    <hyperlink ref="X6" r:id="rId14"/>
-    <hyperlink ref="V7" r:id="rId15"/>
-    <hyperlink ref="W7" r:id="rId16"/>
-    <hyperlink ref="X7" r:id="rId17"/>
-    <hyperlink ref="V8" r:id="rId18"/>
-    <hyperlink ref="W8" r:id="rId19"/>
-    <hyperlink ref="X8" r:id="rId20"/>
-    <hyperlink ref="V9" r:id="rId21"/>
-    <hyperlink ref="W9" r:id="rId22"/>
-    <hyperlink ref="X9" r:id="rId23"/>
-    <hyperlink ref="V10" r:id="rId24"/>
-    <hyperlink ref="W10" r:id="rId25"/>
-    <hyperlink ref="X10" r:id="rId26"/>
-    <hyperlink ref="V11" r:id="rId27"/>
-    <hyperlink ref="W11" r:id="rId28"/>
-    <hyperlink ref="X11" r:id="rId29"/>
-    <hyperlink ref="V12" r:id="rId30"/>
-    <hyperlink ref="W12" r:id="rId31"/>
-    <hyperlink ref="X12" r:id="rId32"/>
-    <hyperlink ref="V13" r:id="rId33"/>
-    <hyperlink ref="W13" r:id="rId34"/>
-    <hyperlink ref="X13" r:id="rId35"/>
-    <hyperlink ref="V14" r:id="rId36"/>
-    <hyperlink ref="W14" r:id="rId37"/>
-    <hyperlink ref="X14" r:id="rId38"/>
-    <hyperlink ref="V15" r:id="rId39"/>
-    <hyperlink ref="W15" r:id="rId40"/>
-    <hyperlink ref="X15" r:id="rId41"/>
-    <hyperlink ref="V16" r:id="rId42"/>
-    <hyperlink ref="W16" r:id="rId43"/>
-    <hyperlink ref="X16" r:id="rId44"/>
-    <hyperlink ref="V17" r:id="rId45"/>
-    <hyperlink ref="W17" r:id="rId46"/>
-    <hyperlink ref="X17" r:id="rId47"/>
-    <hyperlink ref="V18" r:id="rId48"/>
-    <hyperlink ref="W18" r:id="rId49"/>
-    <hyperlink ref="X18" r:id="rId50"/>
-    <hyperlink ref="V19" r:id="rId51"/>
-    <hyperlink ref="W19" r:id="rId52"/>
-    <hyperlink ref="X19" r:id="rId53"/>
-    <hyperlink ref="V20" r:id="rId54"/>
-    <hyperlink ref="V21" r:id="rId55"/>
-    <hyperlink ref="W21" r:id="rId56"/>
-    <hyperlink ref="V22" r:id="rId57"/>
-    <hyperlink ref="W22" r:id="rId58"/>
-    <hyperlink ref="X22" r:id="rId59"/>
-    <hyperlink ref="V23" r:id="rId60"/>
-    <hyperlink ref="W23" r:id="rId61"/>
-    <hyperlink ref="X23" r:id="rId62"/>
-    <hyperlink ref="V24" r:id="rId63"/>
-    <hyperlink ref="W24" r:id="rId64"/>
-    <hyperlink ref="X24" r:id="rId65"/>
-    <hyperlink ref="V25" r:id="rId66"/>
-    <hyperlink ref="W25" r:id="rId67"/>
-    <hyperlink ref="X25" r:id="rId68"/>
-    <hyperlink ref="V26" r:id="rId69"/>
-    <hyperlink ref="W26" r:id="rId70"/>
-    <hyperlink ref="X26" r:id="rId71"/>
-    <hyperlink ref="V27" r:id="rId72"/>
-    <hyperlink ref="W27" r:id="rId73"/>
-    <hyperlink ref="X27" r:id="rId74"/>
-    <hyperlink ref="V28" r:id="rId75"/>
-    <hyperlink ref="W28" r:id="rId76"/>
-    <hyperlink ref="X28" r:id="rId77"/>
-    <hyperlink ref="V30" r:id="rId78"/>
-    <hyperlink ref="W30" r:id="rId79"/>
-    <hyperlink ref="X30" r:id="rId80"/>
-    <hyperlink ref="V31" r:id="rId81"/>
-    <hyperlink ref="W31" r:id="rId82"/>
-    <hyperlink ref="X31" r:id="rId83"/>
-    <hyperlink ref="V32" r:id="rId84"/>
-    <hyperlink ref="W32" r:id="rId85"/>
-    <hyperlink ref="V33" r:id="rId86"/>
-    <hyperlink ref="W33" r:id="rId87"/>
-    <hyperlink ref="X33" r:id="rId88"/>
-    <hyperlink ref="V35" r:id="rId89"/>
-    <hyperlink ref="W35" r:id="rId90"/>
-    <hyperlink ref="X35" r:id="rId91"/>
-    <hyperlink ref="V36" r:id="rId92"/>
-    <hyperlink ref="W36" r:id="rId93"/>
-    <hyperlink ref="X36" r:id="rId94"/>
-    <hyperlink ref="V37" r:id="rId95"/>
-    <hyperlink ref="W37" r:id="rId96"/>
-    <hyperlink ref="X37" r:id="rId97"/>
-    <hyperlink ref="V38" r:id="rId98"/>
-    <hyperlink ref="W38" r:id="rId99"/>
-    <hyperlink ref="X38" r:id="rId100"/>
-    <hyperlink ref="V39" r:id="rId101"/>
-    <hyperlink ref="W39" r:id="rId102"/>
-    <hyperlink ref="X39" r:id="rId103"/>
-    <hyperlink ref="V41" r:id="rId104"/>
-    <hyperlink ref="W41" r:id="rId105"/>
-    <hyperlink ref="X41" r:id="rId106"/>
-    <hyperlink ref="V42" r:id="rId107"/>
-    <hyperlink ref="W42" r:id="rId108"/>
-    <hyperlink ref="V43" r:id="rId109"/>
-    <hyperlink ref="W43" r:id="rId110"/>
-    <hyperlink ref="X43" r:id="rId111"/>
-    <hyperlink ref="V44" r:id="rId112"/>
-    <hyperlink ref="W44" r:id="rId113"/>
-    <hyperlink ref="X44" r:id="rId114"/>
-    <hyperlink ref="V45" r:id="rId115"/>
-    <hyperlink ref="W45" r:id="rId116"/>
-    <hyperlink ref="X45" r:id="rId117"/>
-    <hyperlink ref="V46" r:id="rId118"/>
-    <hyperlink ref="W46" r:id="rId119"/>
-    <hyperlink ref="X46" r:id="rId120"/>
-    <hyperlink ref="V47" r:id="rId121"/>
-    <hyperlink ref="W47" r:id="rId122"/>
-    <hyperlink ref="X47" r:id="rId123"/>
-    <hyperlink ref="V48" r:id="rId124"/>
-    <hyperlink ref="W48" r:id="rId125"/>
-    <hyperlink ref="X48" r:id="rId126"/>
-    <hyperlink ref="V49" r:id="rId127"/>
-    <hyperlink ref="W49" r:id="rId128"/>
-    <hyperlink ref="X49" r:id="rId129"/>
+    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="T3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="T4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="V4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="T5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="T6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="V6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="T7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="V7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="T8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="V8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="T9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="V9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="T10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="V10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="T11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="V11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="T12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="V12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="T13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="V13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="T14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="V14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="T15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="V15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="T16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="V16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="T17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="V17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="T18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="V18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="T19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="V19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="T21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="T22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="V22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="T23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="V23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="T24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="V24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="T25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="V25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="T26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="V26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="T27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="V27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="T28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="V28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="T30" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="V30" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="T31" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="V31" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="T32" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="T33" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="V33" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="T35" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="V35" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="T36" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="V36" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="T37" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="V37" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="T38" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="V38" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="T39" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="V39" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="T41" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="V41" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="T42" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="T43" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="V43" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="T44" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="V44" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="T45" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="V45" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="T46" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="V46" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="T47" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="V47" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="T48" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="V48" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="T49" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="V49" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="U2" r:id="rId85" xr:uid="{A8D73710-8F69-46FB-8CFE-B6F371FE7CC8}"/>
+    <hyperlink ref="U3" r:id="rId86" xr:uid="{EF00C0B3-B611-46F7-BCB1-57BC07BBA4BF}"/>
+    <hyperlink ref="U4" r:id="rId87" xr:uid="{AA5290F7-DF28-49AE-B5D5-D1928457A7CC}"/>
+    <hyperlink ref="U5" r:id="rId88" xr:uid="{CC92F37B-8A7D-4D0C-8073-C50FF56C3626}"/>
+    <hyperlink ref="U6" r:id="rId89" xr:uid="{CAD9CB91-DF46-4855-820E-F40A51AB0F60}"/>
+    <hyperlink ref="U7" r:id="rId90" xr:uid="{A960E1F8-8209-47FF-A8FD-3B69565DA81E}"/>
+    <hyperlink ref="U8" r:id="rId91" xr:uid="{F6E0F7F0-5ADC-4951-AB4F-51C7AD382E4F}"/>
+    <hyperlink ref="U9" r:id="rId92" xr:uid="{388D58F2-AE9F-45EB-B185-5418D5B0F755}"/>
+    <hyperlink ref="U10" r:id="rId93" xr:uid="{DEF71AFD-D777-49AB-99CD-B55FFEB19FA7}"/>
+    <hyperlink ref="U11" r:id="rId94" xr:uid="{C8EC04AD-5F4A-4712-89E2-AF40D2988113}"/>
+    <hyperlink ref="U12" r:id="rId95" xr:uid="{56855BE0-504B-4F0D-AA12-2C690ED499BB}"/>
+    <hyperlink ref="U13" r:id="rId96" xr:uid="{BBC89B44-DE23-433D-BB73-62EC4934695C}"/>
+    <hyperlink ref="U14" r:id="rId97" xr:uid="{0482B68B-E59C-44D6-98EC-1B2C6EA0B977}"/>
+    <hyperlink ref="U15" r:id="rId98" xr:uid="{B50E4DB6-F412-41C2-817D-E5C27FC8CB52}"/>
+    <hyperlink ref="U16" r:id="rId99" xr:uid="{2DCE1CE7-FF78-4C3B-AA27-91EA9F5577B3}"/>
+    <hyperlink ref="U17" r:id="rId100" xr:uid="{1D8BE149-35CF-45D2-8B08-A03DA0648D56}"/>
+    <hyperlink ref="U18" r:id="rId101" xr:uid="{3B11C39E-702C-458B-AC07-81AF876244D9}"/>
+    <hyperlink ref="U19" r:id="rId102" xr:uid="{CA5E5D1D-987F-4F97-AE16-B405DE726B20}"/>
+    <hyperlink ref="U20" r:id="rId103" xr:uid="{34580CBD-A574-42F9-A26E-CDAE754AB7DD}"/>
+    <hyperlink ref="U21" r:id="rId104" xr:uid="{610E7443-7126-4D22-881C-72963075B8CA}"/>
+    <hyperlink ref="U22" r:id="rId105" xr:uid="{BCD53A7C-1B5E-4BF5-B077-E96F4BE2A1DC}"/>
+    <hyperlink ref="U23" r:id="rId106" xr:uid="{20CBFEFD-50D4-433B-B0FA-FFC2FE797D73}"/>
+    <hyperlink ref="U24" r:id="rId107" xr:uid="{DB6FEE3A-FEEA-4EF6-85A3-58F5839DFA2B}"/>
+    <hyperlink ref="U25" r:id="rId108" xr:uid="{EAD86D3B-806F-433A-A871-472CA746261A}"/>
+    <hyperlink ref="U26" r:id="rId109" xr:uid="{5CF657FE-7CBA-4D6A-91FB-866D1AFA2F79}"/>
+    <hyperlink ref="U27" r:id="rId110" xr:uid="{720B47DD-CD03-4B16-ABAD-DD9B692A6D44}"/>
+    <hyperlink ref="U28" r:id="rId111" xr:uid="{01B67240-7D7D-42A4-8D17-7E6736C7F448}"/>
+    <hyperlink ref="U30" r:id="rId112" xr:uid="{81CBED51-DB20-48FC-9717-3525D4FE9CDA}"/>
+    <hyperlink ref="U31" r:id="rId113" xr:uid="{4012AA20-7662-4717-86F0-371E084B8C89}"/>
+    <hyperlink ref="U32" r:id="rId114" xr:uid="{2C8D9304-AA78-4066-8C15-1DE89974E39C}"/>
+    <hyperlink ref="U33" r:id="rId115" xr:uid="{B294F57B-0AFE-4576-9D1A-D23082BF8501}"/>
+    <hyperlink ref="U35" r:id="rId116" xr:uid="{8F7759B0-F329-4A49-AB05-25993CD71280}"/>
+    <hyperlink ref="U36" r:id="rId117" xr:uid="{A43B83F6-A054-48D4-8310-6C652689A804}"/>
+    <hyperlink ref="U37" r:id="rId118" xr:uid="{5BE5CFCE-750F-4DD3-BBCE-7CF964941BCE}"/>
+    <hyperlink ref="U38" r:id="rId119" xr:uid="{E236B582-E8C7-4F16-94B9-F1254872119E}"/>
+    <hyperlink ref="U39" r:id="rId120" xr:uid="{19D93919-B581-43A0-9A9E-020EE0C24C1D}"/>
+    <hyperlink ref="U41" r:id="rId121" xr:uid="{5425252B-1A6B-48E3-8DB0-D40A3A4401E0}"/>
+    <hyperlink ref="U42" r:id="rId122" xr:uid="{3882A14D-61CA-4B5F-95CD-258BFB2C0D87}"/>
+    <hyperlink ref="U43" r:id="rId123" xr:uid="{53AAD0A3-A6D4-485E-A55B-6DCB97DA8FEE}"/>
+    <hyperlink ref="U44" r:id="rId124" xr:uid="{2B7E72C1-6E99-4ADC-A5C4-E346924B5551}"/>
+    <hyperlink ref="U45" r:id="rId125" xr:uid="{D9210D6C-0B9E-4670-87FD-2D1CBCA49EC9}"/>
+    <hyperlink ref="U46" r:id="rId126" xr:uid="{E47BADCA-8864-4F1D-9435-E756D3ECE49D}"/>
+    <hyperlink ref="U47" r:id="rId127" xr:uid="{F2230AE4-C47F-49DB-AA86-5C432A808DA8}"/>
+    <hyperlink ref="U48" r:id="rId128" xr:uid="{BCF1AD5D-3105-4058-8DF8-311E34478EF6}"/>
+    <hyperlink ref="U49" r:id="rId129" xr:uid="{E7DBB389-A52B-418B-803D-B9E9B734CEFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/excel/format_pbj/pbjrahmi1.xlsx
+++ b/public/excel/format_pbj/pbjrahmi1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\membership_laravel\public\excel\format_pbj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2051E061-5980-4AB4-81F9-C0A94EDDAE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E49F46-8E41-4ED9-8A03-F5358B9996EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="715">
   <si>
     <t>fierstiyantostevanusagung@gmail.com</t>
   </si>
@@ -2032,6 +2032,141 @@
   </si>
   <si>
     <t>sk_pengangkatan_asn</t>
+  </si>
+  <si>
+    <t>nama_tanpa_gelar</t>
+  </si>
+  <si>
+    <t>STEVANUS AGUNG FIERSTIYANTO</t>
+  </si>
+  <si>
+    <t>Andi Mahirah</t>
+  </si>
+  <si>
+    <t>Adlin Shabilla Mulya</t>
+  </si>
+  <si>
+    <t>Gita Saputri</t>
+  </si>
+  <si>
+    <t>Putrie Aprillita Mantassya</t>
+  </si>
+  <si>
+    <t>Agatha Ayu Khristanti</t>
+  </si>
+  <si>
+    <t>Iswanto Totou</t>
+  </si>
+  <si>
+    <t>Azwar Annas</t>
+  </si>
+  <si>
+    <t>Dita Solvabi Andiani</t>
+  </si>
+  <si>
+    <t>Idma Eka Putra</t>
+  </si>
+  <si>
+    <t>Brian Halomoan Putra</t>
+  </si>
+  <si>
+    <t>Rismawati</t>
+  </si>
+  <si>
+    <t>EKA ANDRIES</t>
+  </si>
+  <si>
+    <t>Achmad Danu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margaretha </t>
+  </si>
+  <si>
+    <t>Busaid</t>
+  </si>
+  <si>
+    <t>Asih Mulyaningsih</t>
+  </si>
+  <si>
+    <t>Widi hastuti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novi Nur Peasetianingrum </t>
+  </si>
+  <si>
+    <t>Ricky Casanopa</t>
+  </si>
+  <si>
+    <t>Surya Raymond</t>
+  </si>
+  <si>
+    <t>Ditta Dwi Damayanti</t>
+  </si>
+  <si>
+    <t>Bagas Tenditya Putra</t>
+  </si>
+  <si>
+    <t>Budi Susanto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAHAYU KURNIAWATI </t>
+  </si>
+  <si>
+    <t>SARI HANDAYANI</t>
+  </si>
+  <si>
+    <t>Muhlis</t>
+  </si>
+  <si>
+    <t>Tini Sukarsih</t>
+  </si>
+  <si>
+    <t>Rini maulisa</t>
+  </si>
+  <si>
+    <t>Isroni Komarwati</t>
+  </si>
+  <si>
+    <t>Nurachman</t>
+  </si>
+  <si>
+    <t>RAMA INDERA KUSUMA</t>
+  </si>
+  <si>
+    <t>Carles Siagian</t>
+  </si>
+  <si>
+    <t>Tri Wahyudi</t>
+  </si>
+  <si>
+    <t>Semuel</t>
+  </si>
+  <si>
+    <t>Zulfa Isnianto</t>
+  </si>
+  <si>
+    <t>Dian Rusiyanti</t>
+  </si>
+  <si>
+    <t>Alexy Oktoman Djohansjah</t>
+  </si>
+  <si>
+    <t>Muhammad Romario Basirung</t>
+  </si>
+  <si>
+    <t>Raffael Semuel Hetharie</t>
+  </si>
+  <si>
+    <t>Lukman Yahya</t>
+  </si>
+  <si>
+    <t>Ria Sudiana</t>
+  </si>
+  <si>
+    <t>Inggrid Yosefa Jue Wage</t>
+  </si>
+  <si>
+    <t>ACHIRUDIN DJAMIL AFIF</t>
   </si>
 </sst>
 </file>
@@ -2389,26 +2524,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="7" customWidth="1"/>
-    <col min="3" max="19" width="18.85546875" style="7" customWidth="1"/>
-    <col min="20" max="20" width="69.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="30" customWidth="1"/>
-    <col min="22" max="22" width="72.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="18.85546875" style="7" customWidth="1"/>
-    <col min="28" max="16384" width="12.5703125" style="7"/>
+    <col min="2" max="2" width="68.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="7" customWidth="1"/>
+    <col min="4" max="20" width="18.85546875" style="7" customWidth="1"/>
+    <col min="21" max="21" width="69.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.85546875" style="30" customWidth="1"/>
+    <col min="23" max="23" width="72.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="28" width="18.85546875" style="7" customWidth="1"/>
+    <col min="29" max="16384" width="12.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>648</v>
       </c>
@@ -2416,2088 +2552,2174 @@
         <v>649</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>670</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>650</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>651</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>652</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>653</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>654</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>655</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>656</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>657</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="31" t="s">
         <v>658</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="31" t="s">
         <v>659</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="31" t="s">
         <v>660</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>661</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>662</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="Q1" s="31" t="s">
         <v>663</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>664</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>665</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>666</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="31" t="s">
         <v>667</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="V1" s="31" t="s">
         <v>668</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="W1" s="31" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="8">
+      <c r="M2" s="8">
         <v>99351</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="V2" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="11"/>
       <c r="X2" s="11"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
       <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
     </row>
-    <row r="3" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>10270</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="O3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="Q3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="V3" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="W3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="11"/>
       <c r="X3" s="11"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
+      <c r="AB3" s="11"/>
     </row>
-    <row r="4" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
+        <v>673</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="12">
+      <c r="I4" s="12">
         <v>20211020297</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="12">
+      <c r="M4" s="12">
         <v>16411</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>22</v>
       </c>
       <c r="R4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="T4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="U4" s="26" t="s">
+      <c r="V4" s="26" t="s">
         <v>605</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
       <c r="Z4" s="15"/>
       <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
     </row>
-    <row r="5" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="12">
+      <c r="I5" s="12">
         <v>20220720392</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="L5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="12">
+      <c r="M5" s="12">
         <v>16411</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="P5" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>22</v>
       </c>
       <c r="R5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="T5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="U5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="26" t="s">
+      <c r="V5" s="26" t="s">
         <v>606</v>
       </c>
-      <c r="V5" s="15"/>
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
       <c r="Z5" s="15"/>
       <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
     </row>
-    <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
+        <v>675</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="H6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L6" s="12">
+      <c r="M6" s="12">
         <v>12710</v>
       </c>
-      <c r="M6" s="12" t="s">
+      <c r="N6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="O6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="Q6" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="12" t="s">
+      <c r="R6" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="R6" s="12" t="s">
+      <c r="S6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="12" t="s">
+      <c r="T6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T6" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="26" t="s">
+      <c r="V6" s="26" t="s">
         <v>607</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15"/>
       <c r="Z6" s="15"/>
       <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
     </row>
-    <row r="7" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="J7" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="16">
+      <c r="M7" s="16">
         <v>12710</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="N7" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="P7" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="Q7" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="R7" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="S7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="T7" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="T7" s="18" t="s">
+      <c r="U7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="U7" s="27" t="s">
+      <c r="V7" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="V7" s="18" t="s">
+      <c r="W7" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="W7" s="19"/>
       <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
       <c r="Z7" s="19"/>
       <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
     </row>
-    <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
+        <v>677</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="12">
+      <c r="M8" s="12">
         <v>97711</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="N8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="P8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="Q8" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="Q8" s="12" t="s">
+      <c r="R8" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="R8" s="12" t="s">
+      <c r="S8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S8" s="12" t="s">
+      <c r="T8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="U8" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="U8" s="26" t="s">
+      <c r="V8" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="W8" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="W8" s="15"/>
       <c r="X8" s="15"/>
       <c r="Y8" s="15"/>
       <c r="Z8" s="15"/>
       <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
     </row>
-    <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="F9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="12">
+      <c r="I9" s="12">
         <v>1791026</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="L9" s="12">
+      <c r="M9" s="12">
         <v>13340</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="N9" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="Q9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="R9" s="12">
         <v>12</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="S9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="T9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="14" t="s">
+      <c r="U9" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="U9" s="26" t="s">
+      <c r="V9" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="W9" s="15"/>
       <c r="X9" s="15"/>
       <c r="Y9" s="15"/>
       <c r="Z9" s="15"/>
       <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
     </row>
-    <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="15" t="s">
+        <v>679</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="12">
+      <c r="I10" s="12">
         <v>1794104</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="L10" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="L10" s="12">
+      <c r="M10" s="12">
         <v>13340</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="P10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="Q10" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="Q10" s="12" t="s">
+      <c r="R10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="12" t="s">
+      <c r="S10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="T10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="U10" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="U10" s="26" t="s">
+      <c r="V10" s="26" t="s">
         <v>611</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="W10" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="W10" s="15"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="15"/>
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
     </row>
-    <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
+        <v>680</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="G11" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="H11" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="12" t="s">
+      <c r="L11" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="12">
+      <c r="M11" s="12">
         <v>15414</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="12" t="s">
+      <c r="Q11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="R11" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="S11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="T11" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="14" t="s">
+      <c r="U11" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="V11" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="W11" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="W11" s="15"/>
       <c r="X11" s="15"/>
       <c r="Y11" s="15"/>
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
     </row>
-    <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>135</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>65</v>
       </c>
       <c r="H12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="K12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="L12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="12">
+      <c r="M12" s="12">
         <v>12710</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="O12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="P12" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="R12" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="R12" s="12" t="s">
+      <c r="S12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="12" t="s">
+      <c r="T12" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T12" s="14" t="s">
+      <c r="U12" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="U12" s="26" t="s">
+      <c r="V12" s="26" t="s">
         <v>613</v>
       </c>
-      <c r="V12" s="14" t="s">
+      <c r="W12" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="W12" s="15"/>
       <c r="X12" s="15"/>
       <c r="Y12" s="15"/>
       <c r="Z12" s="15"/>
       <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
     </row>
-    <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>144</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="K13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="L13" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="L13" s="16">
+      <c r="M13" s="16">
         <v>77554</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="O13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="P13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="Q13" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="R13" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="S13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="T13" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="T13" s="18" t="s">
+      <c r="U13" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="U13" s="27" t="s">
+      <c r="V13" s="27" t="s">
         <v>614</v>
       </c>
-      <c r="V13" s="18" t="s">
+      <c r="W13" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
     </row>
-    <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="L14" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="L14" s="8">
+      <c r="M14" s="8">
         <v>15414</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="N14" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="O14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="P14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="Q14" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="R14" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="R14" s="8" t="s">
+      <c r="S14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S14" s="8" t="s">
+      <c r="T14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="U14" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="U14" s="25" t="s">
+      <c r="V14" s="25" t="s">
         <v>615</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="W14" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
       <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
     </row>
-    <row r="15" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>172</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="G15" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="H15" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="I15" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="J15" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="K15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="L15" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="16">
+      <c r="M15" s="16">
         <v>10270</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="N15" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="N15" s="16" t="s">
+      <c r="O15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="P15" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="16" t="s">
+      <c r="Q15" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="R15" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="R15" s="16" t="s">
+      <c r="S15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="T15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="T15" s="18" t="s">
+      <c r="U15" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="U15" s="27" t="s">
+      <c r="V15" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="V15" s="18" t="s">
+      <c r="W15" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="W15" s="19"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
     </row>
-    <row r="16" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>186</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="L16" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="L16" s="12">
+      <c r="M16" s="12">
         <v>77554</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="O16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="R16" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="S16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S16" s="12" t="s">
+      <c r="T16" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="U16" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="U16" s="26" t="s">
+      <c r="V16" s="26" t="s">
         <v>617</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="W16" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="W16" s="15"/>
       <c r="X16" s="15"/>
       <c r="Y16" s="15"/>
       <c r="Z16" s="15"/>
       <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
     </row>
-    <row r="17" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>198</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="F17" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>202</v>
       </c>
       <c r="H17" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="J17" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="K17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="L17" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="L17" s="12">
+      <c r="M17" s="12">
         <v>16680</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="N17" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="O17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="R17" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="R17" s="12" t="s">
+      <c r="S17" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S17" s="12" t="s">
+      <c r="T17" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T17" s="14" t="s">
+      <c r="U17" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="U17" s="26" t="s">
+      <c r="V17" s="26" t="s">
         <v>618</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="W17" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
       <c r="Z17" s="15"/>
       <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
     </row>
-    <row r="18" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>211</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>83123190</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="J18" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="K18" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="L18" s="8">
+      <c r="M18" s="8">
         <v>10340</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="N18" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="O18" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="P18" s="8" t="s">
         <v>46</v>
-      </c>
-      <c r="P18" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="Q18" s="8" t="s">
         <v>22</v>
       </c>
       <c r="R18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="S18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S18" s="8" t="s">
+      <c r="T18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="U18" s="25" t="s">
+      <c r="V18" s="25" t="s">
         <v>619</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="W18" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="W18" s="11"/>
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
     </row>
-    <row r="19" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>224</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="12" t="s">
+      <c r="L19" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="L19" s="12">
+      <c r="M19" s="12">
         <v>42118</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="O19" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="P19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="Q19" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="R19" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="S19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="12" t="s">
+      <c r="T19" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="T19" s="14" t="s">
+      <c r="U19" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="U19" s="26" t="s">
+      <c r="V19" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="W19" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="W19" s="15"/>
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
     </row>
-    <row r="20" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
+        <v>688</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="H20" s="20">
+      <c r="I20" s="20">
         <v>1.6521605198100998E+17</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="J20" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="L20" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="L20" s="8">
+      <c r="M20" s="8">
         <v>20152</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="N20" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="O20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="P20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="8" t="s">
+      <c r="Q20" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="R20" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="R20" s="8" t="s">
+      <c r="S20" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S20" s="8" t="s">
+      <c r="T20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T20" s="11"/>
-      <c r="U20" s="25" t="s">
+      <c r="U20" s="11"/>
+      <c r="V20" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="V20" s="11"/>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
       <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
     </row>
-    <row r="21" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>251</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="15" t="s">
+        <v>689</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="H21" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="I21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="J21" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="K21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="L21" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="L21" s="12">
+      <c r="M21" s="12">
         <v>13350</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="N21" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="O21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O21" s="12" t="s">
+      <c r="P21" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>22</v>
       </c>
       <c r="Q21" s="12" t="s">
         <v>22</v>
       </c>
       <c r="R21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="S21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S21" s="12" t="s">
+      <c r="T21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T21" s="14" t="s">
+      <c r="U21" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="U21" s="26" t="s">
+      <c r="V21" s="26" t="s">
         <v>622</v>
       </c>
-      <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="15"/>
       <c r="Y21" s="15"/>
       <c r="Z21" s="15"/>
       <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
     </row>
-    <row r="22" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>260</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="15" t="s">
+        <v>690</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="E22" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="F22" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="G22" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="H22" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="I22" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="J22" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="K22" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="L22" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="L22" s="12">
+      <c r="M22" s="12">
         <v>38211</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="N22" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="O22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O22" s="12" t="s">
+      <c r="P22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P22" s="12" t="s">
+      <c r="Q22" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="R22" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="R22" s="12" t="s">
+      <c r="S22" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S22" s="12" t="s">
+      <c r="T22" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T22" s="14" t="s">
+      <c r="U22" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="U22" s="26" t="s">
+      <c r="V22" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="W22" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="W22" s="15"/>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
     </row>
-    <row r="23" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>274</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="15" t="s">
+        <v>691</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="E23" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="F23" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="G23" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="I23" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="J23" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="K23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="L23" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="L23" s="12">
+      <c r="M23" s="12">
         <v>38211</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="N23" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="O23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O23" s="12" t="s">
+      <c r="P23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P23" s="12" t="s">
+      <c r="Q23" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="R23" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="R23" s="12" t="s">
+      <c r="S23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S23" s="12" t="s">
+      <c r="T23" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T23" s="14" t="s">
+      <c r="U23" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="U23" s="26" t="s">
+      <c r="V23" s="26" t="s">
         <v>624</v>
       </c>
-      <c r="V23" s="14" t="s">
+      <c r="W23" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="W23" s="15"/>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
       <c r="Z23" s="15"/>
       <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
     </row>
-    <row r="24" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>287</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="F24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="G24" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="H24" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="12">
+      <c r="I24" s="12">
         <v>1287027</v>
       </c>
-      <c r="I24" s="12" t="s">
+      <c r="J24" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="K24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="L24" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="L24" s="12">
+      <c r="M24" s="12">
         <v>13340</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="N24" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="O24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="P24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="Q24" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="R24" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="S24" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S24" s="12" t="s">
+      <c r="T24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="U24" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="U24" s="26" t="s">
+      <c r="V24" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="W24" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="W24" s="15"/>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
       <c r="Z24" s="15"/>
       <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
     </row>
-    <row r="25" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>297</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="E25" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>301</v>
       </c>
       <c r="H25" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I25" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="J25" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="K25" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="L25" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="L25" s="12">
+      <c r="M25" s="12">
         <v>15411</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="N25" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="O25" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="P25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="Q25" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="R25" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="S25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S25" s="12" t="s">
+      <c r="T25" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T25" s="14" t="s">
+      <c r="U25" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="U25" s="26" t="s">
+      <c r="V25" s="26" t="s">
         <v>626</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="W25" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="W25" s="15"/>
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
       <c r="Z25" s="15"/>
       <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
     </row>
-    <row r="26" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>310</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="E26" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="F26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="G26" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="H26" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="H26" s="12">
+      <c r="I26" s="12">
         <v>74040785</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="J26" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="J26" s="12" t="s">
+      <c r="K26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="L26" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="L26" s="12">
+      <c r="M26" s="12">
         <v>13510</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="N26" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="O26" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="P26" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="Q26" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="R26" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="S26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="T26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T26" s="14" t="s">
+      <c r="U26" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="U26" s="26" t="s">
+      <c r="V26" s="26" t="s">
         <v>627</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="W26" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
       <c r="Z26" s="15"/>
       <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
     </row>
-    <row r="27" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>323</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="E27" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="F27" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="G27" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="I27" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="J27" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="J27" s="12" t="s">
+      <c r="K27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="L27" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="L27" s="12">
+      <c r="M27" s="12">
         <v>13510</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="N27" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="O27" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="P27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="Q27" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="R27" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="R27" s="12" t="s">
+      <c r="S27" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S27" s="12" t="s">
+      <c r="T27" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T27" s="14" t="s">
+      <c r="U27" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="U27" s="26" t="s">
+      <c r="V27" s="26" t="s">
         <v>628</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="W27" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="W27" s="15"/>
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
       <c r="Z27" s="15"/>
       <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
     </row>
-    <row r="28" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>337</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="J28" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="K28" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="8" t="s">
+      <c r="L28" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="L28" s="8">
+      <c r="M28" s="8">
         <v>13510</v>
       </c>
-      <c r="M28" s="8" t="s">
+      <c r="N28" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="O28" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="P28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P28" s="8" t="s">
+      <c r="Q28" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="R28" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="R28" s="8" t="s">
+      <c r="S28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S28" s="8" t="s">
+      <c r="T28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T28" s="10" t="s">
+      <c r="U28" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="U28" s="25" t="s">
+      <c r="V28" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="V28" s="10" t="s">
+      <c r="W28" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="W28" s="11"/>
       <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
     </row>
-    <row r="29" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>350</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="D29" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="F29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="G29" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H29" s="12">
+      <c r="I29" s="12">
         <v>76040898</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="J29" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="K29" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="L29" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="L29" s="12">
+      <c r="M29" s="12">
         <v>13510</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="N29" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="O29" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="O29" s="12" t="s">
+      <c r="P29" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="Q29" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="R29" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="S29" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="T29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
@@ -4505,774 +4727,807 @@
       <c r="Y29" s="15"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
     </row>
-    <row r="30" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>360</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="H30" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="I30" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="J30" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="K30" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="L30" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="L30" s="12">
+      <c r="M30" s="12">
         <v>13510</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="N30" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="N30" s="12" t="s">
+      <c r="O30" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O30" s="12" t="s">
+      <c r="P30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="Q30" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="R30" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="S30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S30" s="12" t="s">
+      <c r="T30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T30" s="14" t="s">
+      <c r="U30" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="U30" s="26" t="s">
+      <c r="V30" s="26" t="s">
         <v>630</v>
       </c>
-      <c r="V30" s="14" t="s">
+      <c r="W30" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="W30" s="15"/>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
       <c r="Z30" s="15"/>
       <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
     </row>
-    <row r="31" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>374</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="E31" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="G31" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="H31" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="I31" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="J31" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="K31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="L31" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="L31" s="12">
+      <c r="M31" s="12">
         <v>13510</v>
       </c>
-      <c r="M31" s="12" t="s">
+      <c r="N31" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="O31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O31" s="12" t="s">
+      <c r="P31" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P31" s="12" t="s">
+      <c r="Q31" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="R31" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="R31" s="12" t="s">
+      <c r="S31" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S31" s="12" t="s">
+      <c r="T31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T31" s="14" t="s">
+      <c r="U31" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="U31" s="26" t="s">
+      <c r="V31" s="26" t="s">
         <v>631</v>
       </c>
-      <c r="V31" s="14" t="s">
+      <c r="W31" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="W31" s="15"/>
       <c r="X31" s="15"/>
       <c r="Y31" s="15"/>
       <c r="Z31" s="15"/>
       <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
     </row>
-    <row r="32" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>387</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="H32" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <v>72120374</v>
       </c>
-      <c r="I32" s="6">
+      <c r="J32" s="6">
         <v>320102551272009</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="K32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="L32" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="L32" s="6">
+      <c r="M32" s="6">
         <v>13510</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="N32" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="O32" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O32" s="6" t="s">
+      <c r="P32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P32" s="6" t="s">
+      <c r="Q32" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="Q32" s="6" t="s">
+      <c r="R32" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="R32" s="6" t="s">
+      <c r="S32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="T32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="T32" s="22" t="s">
+      <c r="U32" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="U32" s="28" t="s">
+      <c r="V32" s="28" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>13510</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="Q33" s="1" t="s">
+      <c r="R33" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="U33" s="29" t="s">
+      <c r="V33" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="W33" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
     </row>
-    <row r="34" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>411</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="H34" s="23">
+      <c r="I34" s="23">
         <v>1445070281010800</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="J34" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="K34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="L34" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="L34" s="6">
+      <c r="M34" s="6">
         <v>20152</v>
       </c>
-      <c r="M34" s="6" t="s">
+      <c r="N34" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="O34" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O34" s="6" t="s">
+      <c r="P34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P34" s="6" t="s">
+      <c r="Q34" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="Q34" s="6" t="s">
+      <c r="R34" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="R34" s="6" t="s">
+      <c r="S34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S34" s="6" t="s">
+      <c r="T34" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>421</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="E35" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="F35" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="G35" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="H35" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="H35" s="16" t="s">
+      <c r="I35" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="J35" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="K35" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="L35" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="L35" s="16">
+      <c r="M35" s="16">
         <v>13510</v>
       </c>
-      <c r="M35" s="16" t="s">
+      <c r="N35" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="N35" s="16" t="s">
+      <c r="O35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O35" s="16" t="s">
+      <c r="P35" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P35" s="16" t="s">
+      <c r="Q35" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="Q35" s="16" t="s">
+      <c r="R35" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="R35" s="16" t="s">
+      <c r="S35" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S35" s="16" t="s">
+      <c r="T35" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="T35" s="18" t="s">
+      <c r="U35" s="18" t="s">
         <v>432</v>
       </c>
-      <c r="U35" s="27" t="s">
+      <c r="V35" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="V35" s="18" t="s">
+      <c r="W35" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="W35" s="19"/>
       <c r="X35" s="19"/>
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
       <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
     </row>
-    <row r="36" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>434</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="E36" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="F36" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="G36" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="G36" s="16" t="s">
+      <c r="H36" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="I36" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="I36" s="16" t="s">
+      <c r="J36" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="K36" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K36" s="16" t="s">
+      <c r="L36" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="L36" s="16">
+      <c r="M36" s="16">
         <v>11510</v>
       </c>
-      <c r="M36" s="16" t="s">
+      <c r="N36" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="N36" s="16" t="s">
+      <c r="O36" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O36" s="16" t="s">
+      <c r="P36" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="P36" s="16" t="s">
+      <c r="Q36" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="Q36" s="16" t="s">
+      <c r="R36" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="R36" s="16" t="s">
+      <c r="S36" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S36" s="16" t="s">
+      <c r="T36" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="T36" s="18" t="s">
+      <c r="U36" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="U36" s="27" t="s">
+      <c r="V36" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="V36" s="18" t="s">
+      <c r="W36" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="W36" s="19"/>
       <c r="X36" s="19"/>
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
       <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
     </row>
-    <row r="37" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>446</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="D37" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="E37" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="F37" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="G37" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="H37" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="I37" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="I37" s="16" t="s">
+      <c r="J37" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="J37" s="16" t="s">
+      <c r="K37" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="L37" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="L37" s="16">
+      <c r="M37" s="16">
         <v>42118</v>
       </c>
-      <c r="M37" s="16" t="s">
+      <c r="N37" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="N37" s="16" t="s">
+      <c r="O37" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="O37" s="16" t="s">
+      <c r="P37" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="P37" s="16" t="s">
+      <c r="Q37" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="Q37" s="16" t="s">
+      <c r="R37" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="R37" s="16" t="s">
+      <c r="S37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S37" s="16" t="s">
+      <c r="T37" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="T37" s="18" t="s">
+      <c r="U37" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="U37" s="27" t="s">
+      <c r="V37" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="V37" s="18" t="s">
+      <c r="W37" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="W37" s="19"/>
       <c r="X37" s="19"/>
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
       <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
     </row>
-    <row r="38" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>459</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H38" s="8">
+      <c r="I38" s="8">
         <v>79052206</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="J38" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="K38" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="L38" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="L38" s="8">
+      <c r="M38" s="8">
         <v>12770</v>
       </c>
-      <c r="M38" s="8" t="s">
+      <c r="N38" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="N38" s="8" t="s">
+      <c r="O38" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="O38" s="8" t="s">
+      <c r="P38" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="Q38" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="R38" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="R38" s="8" t="s">
+      <c r="S38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="S38" s="8" t="s">
+      <c r="T38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T38" s="10" t="s">
+      <c r="U38" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="U38" s="25" t="s">
+      <c r="V38" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="V38" s="10" t="s">
+      <c r="W38" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="W38" s="11"/>
       <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
     </row>
-    <row r="39" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>471</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="F39" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="G39" s="12" t="s">
         <v>229</v>
       </c>
       <c r="H39" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="J39" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="J39" s="12" t="s">
+      <c r="K39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K39" s="12" t="s">
+      <c r="L39" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="L39" s="12">
+      <c r="M39" s="12">
         <v>42418</v>
       </c>
-      <c r="M39" s="12" t="s">
+      <c r="N39" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="N39" s="12" t="s">
+      <c r="O39" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O39" s="12" t="s">
+      <c r="P39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P39" s="12" t="s">
+      <c r="Q39" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="Q39" s="12" t="s">
+      <c r="R39" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="R39" s="12" t="s">
+      <c r="S39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S39" s="12" t="s">
+      <c r="T39" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T39" s="14" t="s">
+      <c r="U39" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="U39" s="26" t="s">
+      <c r="V39" s="26" t="s">
         <v>638</v>
       </c>
-      <c r="V39" s="14" t="s">
+      <c r="W39" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="W39" s="15"/>
       <c r="X39" s="15"/>
       <c r="Y39" s="15"/>
       <c r="Z39" s="15"/>
       <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
     </row>
-    <row r="40" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>483</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="D40" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="E40" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="F40" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="I40" s="12">
         <v>69050540</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="J40" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="J40" s="12" t="s">
+      <c r="K40" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K40" s="12" t="s">
+      <c r="L40" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="L40" s="12">
+      <c r="M40" s="12">
         <v>13510</v>
       </c>
-      <c r="M40" s="12" t="s">
+      <c r="N40" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="N40" s="12" t="s">
+      <c r="O40" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O40" s="12" t="s">
+      <c r="P40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P40" s="12" t="s">
+      <c r="Q40" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="Q40" s="12" t="s">
+      <c r="R40" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="R40" s="12" t="s">
+      <c r="S40" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S40" s="12" t="s">
+      <c r="T40" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T40" s="15"/>
       <c r="U40" s="15"/>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
@@ -5280,666 +5535,696 @@
       <c r="Y40" s="15"/>
       <c r="Z40" s="15"/>
       <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
     </row>
-    <row r="41" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>492</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="E41" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="F41" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="G41" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="H41" s="12">
+      <c r="I41" s="12">
         <v>80090962</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="J41" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="J41" s="12" t="s">
+      <c r="K41" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="12" t="s">
+      <c r="L41" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="L41" s="12">
+      <c r="M41" s="12">
         <v>13510</v>
       </c>
-      <c r="M41" s="12" t="s">
+      <c r="N41" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="N41" s="12" t="s">
+      <c r="O41" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O41" s="12" t="s">
+      <c r="P41" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P41" s="12" t="s">
+      <c r="Q41" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="Q41" s="12" t="s">
+      <c r="R41" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="R41" s="12" t="s">
+      <c r="S41" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S41" s="12" t="s">
+      <c r="T41" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T41" s="14" t="s">
+      <c r="U41" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="U41" s="26" t="s">
+      <c r="V41" s="26" t="s">
         <v>639</v>
       </c>
-      <c r="V41" s="14" t="s">
+      <c r="W41" s="14" t="s">
         <v>502</v>
       </c>
-      <c r="W41" s="15"/>
       <c r="X41" s="15"/>
       <c r="Y41" s="15"/>
       <c r="Z41" s="15"/>
       <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
     </row>
-    <row r="42" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
         <v>503</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="E42" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="F42" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="G42" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="H42" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="I42" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="J42" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="K42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="L42" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="L42" s="12">
+      <c r="M42" s="12">
         <v>13510</v>
       </c>
-      <c r="M42" s="12" t="s">
+      <c r="N42" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="N42" s="12" t="s">
+      <c r="O42" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O42" s="12" t="s">
+      <c r="P42" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P42" s="12" t="s">
+      <c r="Q42" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="Q42" s="12" t="s">
+      <c r="R42" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="R42" s="12" t="s">
+      <c r="S42" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S42" s="12" t="s">
+      <c r="T42" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T42" s="14" t="s">
+      <c r="U42" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="U42" s="26" t="s">
+      <c r="V42" s="26" t="s">
         <v>640</v>
       </c>
-      <c r="V42" s="15"/>
       <c r="W42" s="15"/>
       <c r="X42" s="15"/>
       <c r="Y42" s="15"/>
       <c r="Z42" s="15"/>
       <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
     </row>
-    <row r="43" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
         <v>323</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="E43" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="F43" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="G43" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="H43" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="I43" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="J43" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="K43" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="L43" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="L43" s="12">
+      <c r="M43" s="12">
         <v>13510</v>
       </c>
-      <c r="M43" s="12" t="s">
+      <c r="N43" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="N43" s="12" t="s">
+      <c r="O43" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O43" s="12" t="s">
+      <c r="P43" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="P43" s="12" t="s">
+      <c r="Q43" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="Q43" s="12" t="s">
+      <c r="R43" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="R43" s="12" t="s">
+      <c r="S43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S43" s="12" t="s">
+      <c r="T43" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T43" s="14" t="s">
+      <c r="U43" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="U43" s="26" t="s">
+      <c r="V43" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="V43" s="14" t="s">
+      <c r="W43" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="W43" s="15"/>
       <c r="X43" s="15"/>
       <c r="Y43" s="15"/>
       <c r="Z43" s="15"/>
       <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
     </row>
-    <row r="44" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>528</v>
       </c>
       <c r="B44" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="E44" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="F44" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="G44" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="H44" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="H44" s="12">
+      <c r="I44" s="12">
         <v>75100922</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="J44" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="K44" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K44" s="12" t="s">
+      <c r="L44" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="L44" s="12">
+      <c r="M44" s="12">
         <v>13510</v>
       </c>
-      <c r="M44" s="12" t="s">
+      <c r="N44" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="N44" s="12" t="s">
+      <c r="O44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O44" s="12" t="s">
+      <c r="P44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P44" s="12" t="s">
+      <c r="Q44" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="Q44" s="12" t="s">
+      <c r="R44" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="R44" s="12" t="s">
+      <c r="S44" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S44" s="12" t="s">
+      <c r="T44" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="T44" s="14" t="s">
+      <c r="U44" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="U44" s="26" t="s">
+      <c r="V44" s="26" t="s">
         <v>642</v>
       </c>
-      <c r="V44" s="14" t="s">
+      <c r="W44" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="W44" s="15"/>
       <c r="X44" s="15"/>
       <c r="Y44" s="15"/>
       <c r="Z44" s="15"/>
       <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
     </row>
-    <row r="45" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
         <v>541</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="E45" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="F45" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="G45" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="H45" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="I45" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="J45" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="K45" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="L45" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="L45" s="12">
+      <c r="M45" s="12">
         <v>15411</v>
       </c>
-      <c r="M45" s="12" t="s">
+      <c r="N45" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="N45" s="12" t="s">
+      <c r="O45" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="O45" s="12" t="s">
+      <c r="P45" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P45" s="12" t="s">
+      <c r="Q45" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="Q45" s="12" t="s">
+      <c r="R45" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="R45" s="12" t="s">
+      <c r="S45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S45" s="12" t="s">
+      <c r="T45" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T45" s="24" t="s">
+      <c r="U45" s="24" t="s">
         <v>553</v>
       </c>
-      <c r="U45" s="26" t="s">
+      <c r="V45" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="V45" s="14" t="s">
+      <c r="W45" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="W45" s="15"/>
       <c r="X45" s="15"/>
       <c r="Y45" s="15"/>
       <c r="Z45" s="15"/>
       <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
     </row>
-    <row r="46" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
         <v>555</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="E46" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="G46" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="H46" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="I46" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="J46" s="12" t="s">
         <v>562</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="K46" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="L46" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="L46" s="12">
+      <c r="M46" s="12">
         <v>98471</v>
       </c>
-      <c r="M46" s="12" t="s">
+      <c r="N46" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="N46" s="12" t="s">
+      <c r="O46" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="O46" s="12" t="s">
+      <c r="P46" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P46" s="12" t="s">
+      <c r="Q46" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="Q46" s="12" t="s">
+      <c r="R46" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="R46" s="12" t="s">
+      <c r="S46" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S46" s="12" t="s">
+      <c r="T46" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="T46" s="14" t="s">
+      <c r="U46" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="U46" s="26" t="s">
+      <c r="V46" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="V46" s="14" t="s">
+      <c r="W46" s="14" t="s">
         <v>568</v>
       </c>
-      <c r="W46" s="15"/>
       <c r="X46" s="15"/>
       <c r="Y46" s="15"/>
       <c r="Z46" s="15"/>
       <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
     </row>
-    <row r="47" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>569</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="D47" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="F47" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="G47" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="H47" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="I47" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="K47" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="12" t="s">
+      <c r="L47" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="L47" s="12">
+      <c r="M47" s="12">
         <v>15411</v>
       </c>
-      <c r="M47" s="12" t="s">
+      <c r="N47" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="N47" s="12" t="s">
+      <c r="O47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O47" s="12" t="s">
+      <c r="P47" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="Q47" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="R47" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="R47" s="12" t="s">
+      <c r="S47" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S47" s="12" t="s">
+      <c r="T47" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T47" s="14" t="s">
+      <c r="U47" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="U47" s="26" t="s">
+      <c r="V47" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="V47" s="14" t="s">
+      <c r="W47" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="W47" s="15"/>
       <c r="X47" s="15"/>
       <c r="Y47" s="15"/>
       <c r="Z47" s="15"/>
       <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
     </row>
-    <row r="48" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
         <v>580</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="D48" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="F48" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="G48" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="H48" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="I48" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="J48" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="J48" s="12" t="s">
+      <c r="K48" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="L48" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="L48" s="12">
+      <c r="M48" s="12">
         <v>42117</v>
       </c>
-      <c r="M48" s="12" t="s">
+      <c r="N48" s="12" t="s">
         <v>587</v>
       </c>
-      <c r="N48" s="12" t="s">
+      <c r="O48" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="O48" s="12" t="s">
+      <c r="P48" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="P48" s="12" t="s">
+      <c r="Q48" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="Q48" s="12" t="s">
+      <c r="R48" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="R48" s="12" t="s">
+      <c r="S48" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="S48" s="12" t="s">
+      <c r="T48" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="T48" s="14" t="s">
+      <c r="U48" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="U48" s="26" t="s">
+      <c r="V48" s="26" t="s">
         <v>646</v>
       </c>
-      <c r="V48" s="14" t="s">
+      <c r="W48" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="W48" s="15"/>
       <c r="X48" s="15"/>
       <c r="Y48" s="15"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
     </row>
-    <row r="49" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
         <v>591</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="D49" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="E49" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="F49" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="H49" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="I49" s="12" t="s">
         <v>597</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="J49" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="J49" s="12" t="s">
+      <c r="K49" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="L49" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="L49" s="12">
+      <c r="M49" s="12">
         <v>86472</v>
       </c>
-      <c r="M49" s="12" t="s">
+      <c r="N49" s="12" t="s">
         <v>595</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="O49" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="O49" s="12" t="s">
+      <c r="P49" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P49" s="12" t="s">
+      <c r="Q49" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="Q49" s="12" t="s">
+      <c r="R49" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="R49" s="12" t="s">
+      <c r="S49" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="S49" s="12" t="s">
+      <c r="T49" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T49" s="14" t="s">
+      <c r="U49" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="U49" s="26" t="s">
+      <c r="V49" s="26" t="s">
         <v>647</v>
       </c>
-      <c r="V49" s="14" t="s">
+      <c r="W49" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="W49" s="15"/>
       <c r="X49" s="15"/>
       <c r="Y49" s="15"/>
       <c r="Z49" s="15"/>
       <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
     </row>
-    <row r="50" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="C50" s="5" t="s">
+        <v>714</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -5957,10 +6242,11 @@
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="6"/>
     </row>
-    <row r="51" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -5981,10 +6267,11 @@
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="6"/>
     </row>
-    <row r="52" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -6005,140 +6292,141 @@
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="V2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="T3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="V3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="T4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="V4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="T5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="T6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="V6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="T7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="V7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="T8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="V8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="T9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="V9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="T10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="V10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="T11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="V11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="T12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="V12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="T13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="V13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="T14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="V14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="T15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="V15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="T16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="V16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="T17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="V17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="T18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="V18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="T19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="V19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="T21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="T22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="V22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="T23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="V23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="T24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="V24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="T25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="V25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="T26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="V26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="T27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="V27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="T28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="V28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="T30" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="V30" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="T31" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="V31" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="T32" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="T33" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="V33" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="T35" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="V35" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="T36" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="V36" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="T37" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="V37" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="T38" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="V38" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="T39" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="V39" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="T41" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="V41" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="T42" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="T43" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="V43" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="T44" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="V44" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="T45" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="V45" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="T46" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="V46" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="T47" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="V47" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="T48" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="V48" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="T49" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="V49" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="U2" r:id="rId85" xr:uid="{A8D73710-8F69-46FB-8CFE-B6F371FE7CC8}"/>
-    <hyperlink ref="U3" r:id="rId86" xr:uid="{EF00C0B3-B611-46F7-BCB1-57BC07BBA4BF}"/>
-    <hyperlink ref="U4" r:id="rId87" xr:uid="{AA5290F7-DF28-49AE-B5D5-D1928457A7CC}"/>
-    <hyperlink ref="U5" r:id="rId88" xr:uid="{CC92F37B-8A7D-4D0C-8073-C50FF56C3626}"/>
-    <hyperlink ref="U6" r:id="rId89" xr:uid="{CAD9CB91-DF46-4855-820E-F40A51AB0F60}"/>
-    <hyperlink ref="U7" r:id="rId90" xr:uid="{A960E1F8-8209-47FF-A8FD-3B69565DA81E}"/>
-    <hyperlink ref="U8" r:id="rId91" xr:uid="{F6E0F7F0-5ADC-4951-AB4F-51C7AD382E4F}"/>
-    <hyperlink ref="U9" r:id="rId92" xr:uid="{388D58F2-AE9F-45EB-B185-5418D5B0F755}"/>
-    <hyperlink ref="U10" r:id="rId93" xr:uid="{DEF71AFD-D777-49AB-99CD-B55FFEB19FA7}"/>
-    <hyperlink ref="U11" r:id="rId94" xr:uid="{C8EC04AD-5F4A-4712-89E2-AF40D2988113}"/>
-    <hyperlink ref="U12" r:id="rId95" xr:uid="{56855BE0-504B-4F0D-AA12-2C690ED499BB}"/>
-    <hyperlink ref="U13" r:id="rId96" xr:uid="{BBC89B44-DE23-433D-BB73-62EC4934695C}"/>
-    <hyperlink ref="U14" r:id="rId97" xr:uid="{0482B68B-E59C-44D6-98EC-1B2C6EA0B977}"/>
-    <hyperlink ref="U15" r:id="rId98" xr:uid="{B50E4DB6-F412-41C2-817D-E5C27FC8CB52}"/>
-    <hyperlink ref="U16" r:id="rId99" xr:uid="{2DCE1CE7-FF78-4C3B-AA27-91EA9F5577B3}"/>
-    <hyperlink ref="U17" r:id="rId100" xr:uid="{1D8BE149-35CF-45D2-8B08-A03DA0648D56}"/>
-    <hyperlink ref="U18" r:id="rId101" xr:uid="{3B11C39E-702C-458B-AC07-81AF876244D9}"/>
-    <hyperlink ref="U19" r:id="rId102" xr:uid="{CA5E5D1D-987F-4F97-AE16-B405DE726B20}"/>
-    <hyperlink ref="U20" r:id="rId103" xr:uid="{34580CBD-A574-42F9-A26E-CDAE754AB7DD}"/>
-    <hyperlink ref="U21" r:id="rId104" xr:uid="{610E7443-7126-4D22-881C-72963075B8CA}"/>
-    <hyperlink ref="U22" r:id="rId105" xr:uid="{BCD53A7C-1B5E-4BF5-B077-E96F4BE2A1DC}"/>
-    <hyperlink ref="U23" r:id="rId106" xr:uid="{20CBFEFD-50D4-433B-B0FA-FFC2FE797D73}"/>
-    <hyperlink ref="U24" r:id="rId107" xr:uid="{DB6FEE3A-FEEA-4EF6-85A3-58F5839DFA2B}"/>
-    <hyperlink ref="U25" r:id="rId108" xr:uid="{EAD86D3B-806F-433A-A871-472CA746261A}"/>
-    <hyperlink ref="U26" r:id="rId109" xr:uid="{5CF657FE-7CBA-4D6A-91FB-866D1AFA2F79}"/>
-    <hyperlink ref="U27" r:id="rId110" xr:uid="{720B47DD-CD03-4B16-ABAD-DD9B692A6D44}"/>
-    <hyperlink ref="U28" r:id="rId111" xr:uid="{01B67240-7D7D-42A4-8D17-7E6736C7F448}"/>
-    <hyperlink ref="U30" r:id="rId112" xr:uid="{81CBED51-DB20-48FC-9717-3525D4FE9CDA}"/>
-    <hyperlink ref="U31" r:id="rId113" xr:uid="{4012AA20-7662-4717-86F0-371E084B8C89}"/>
-    <hyperlink ref="U32" r:id="rId114" xr:uid="{2C8D9304-AA78-4066-8C15-1DE89974E39C}"/>
-    <hyperlink ref="U33" r:id="rId115" xr:uid="{B294F57B-0AFE-4576-9D1A-D23082BF8501}"/>
-    <hyperlink ref="U35" r:id="rId116" xr:uid="{8F7759B0-F329-4A49-AB05-25993CD71280}"/>
-    <hyperlink ref="U36" r:id="rId117" xr:uid="{A43B83F6-A054-48D4-8310-6C652689A804}"/>
-    <hyperlink ref="U37" r:id="rId118" xr:uid="{5BE5CFCE-750F-4DD3-BBCE-7CF964941BCE}"/>
-    <hyperlink ref="U38" r:id="rId119" xr:uid="{E236B582-E8C7-4F16-94B9-F1254872119E}"/>
-    <hyperlink ref="U39" r:id="rId120" xr:uid="{19D93919-B581-43A0-9A9E-020EE0C24C1D}"/>
-    <hyperlink ref="U41" r:id="rId121" xr:uid="{5425252B-1A6B-48E3-8DB0-D40A3A4401E0}"/>
-    <hyperlink ref="U42" r:id="rId122" xr:uid="{3882A14D-61CA-4B5F-95CD-258BFB2C0D87}"/>
-    <hyperlink ref="U43" r:id="rId123" xr:uid="{53AAD0A3-A6D4-485E-A55B-6DCB97DA8FEE}"/>
-    <hyperlink ref="U44" r:id="rId124" xr:uid="{2B7E72C1-6E99-4ADC-A5C4-E346924B5551}"/>
-    <hyperlink ref="U45" r:id="rId125" xr:uid="{D9210D6C-0B9E-4670-87FD-2D1CBCA49EC9}"/>
-    <hyperlink ref="U46" r:id="rId126" xr:uid="{E47BADCA-8864-4F1D-9435-E756D3ECE49D}"/>
-    <hyperlink ref="U47" r:id="rId127" xr:uid="{F2230AE4-C47F-49DB-AA86-5C432A808DA8}"/>
-    <hyperlink ref="U48" r:id="rId128" xr:uid="{BCF1AD5D-3105-4058-8DF8-311E34478EF6}"/>
-    <hyperlink ref="U49" r:id="rId129" xr:uid="{E7DBB389-A52B-418B-803D-B9E9B734CEFE}"/>
+    <hyperlink ref="U2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="U3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="W3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="U4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="W4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="U5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="U6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="W6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="U7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="W7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="U8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="W8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="U9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="W9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="U10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="W10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="U11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="W11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="U12" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="W12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="U13" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="W13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="U14" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="W14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="U15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="W15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="U16" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="W16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="U17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="W17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="U18" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="W18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="U19" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="W19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="U21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="U22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="W22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="U23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="W23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="U24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="W24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="U25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="W25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="U26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="W26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="U27" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="W27" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="U28" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="W28" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="U30" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="W30" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="U31" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="W31" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="U32" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="U33" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="W33" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="U35" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="W35" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="U36" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="W36" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="U37" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="W37" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="U38" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="W38" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="U39" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="W39" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="U41" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="W41" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="U42" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="U43" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="W43" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="U44" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="W44" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="U45" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="W45" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="U46" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="W46" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="U47" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="W47" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="U48" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="W48" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="U49" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="W49" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="V2" r:id="rId85" xr:uid="{A8D73710-8F69-46FB-8CFE-B6F371FE7CC8}"/>
+    <hyperlink ref="V3" r:id="rId86" xr:uid="{EF00C0B3-B611-46F7-BCB1-57BC07BBA4BF}"/>
+    <hyperlink ref="V4" r:id="rId87" xr:uid="{AA5290F7-DF28-49AE-B5D5-D1928457A7CC}"/>
+    <hyperlink ref="V5" r:id="rId88" xr:uid="{CC92F37B-8A7D-4D0C-8073-C50FF56C3626}"/>
+    <hyperlink ref="V6" r:id="rId89" xr:uid="{CAD9CB91-DF46-4855-820E-F40A51AB0F60}"/>
+    <hyperlink ref="V7" r:id="rId90" xr:uid="{A960E1F8-8209-47FF-A8FD-3B69565DA81E}"/>
+    <hyperlink ref="V8" r:id="rId91" xr:uid="{F6E0F7F0-5ADC-4951-AB4F-51C7AD382E4F}"/>
+    <hyperlink ref="V9" r:id="rId92" xr:uid="{388D58F2-AE9F-45EB-B185-5418D5B0F755}"/>
+    <hyperlink ref="V10" r:id="rId93" xr:uid="{DEF71AFD-D777-49AB-99CD-B55FFEB19FA7}"/>
+    <hyperlink ref="V11" r:id="rId94" xr:uid="{C8EC04AD-5F4A-4712-89E2-AF40D2988113}"/>
+    <hyperlink ref="V12" r:id="rId95" xr:uid="{56855BE0-504B-4F0D-AA12-2C690ED499BB}"/>
+    <hyperlink ref="V13" r:id="rId96" xr:uid="{BBC89B44-DE23-433D-BB73-62EC4934695C}"/>
+    <hyperlink ref="V14" r:id="rId97" xr:uid="{0482B68B-E59C-44D6-98EC-1B2C6EA0B977}"/>
+    <hyperlink ref="V15" r:id="rId98" xr:uid="{B50E4DB6-F412-41C2-817D-E5C27FC8CB52}"/>
+    <hyperlink ref="V16" r:id="rId99" xr:uid="{2DCE1CE7-FF78-4C3B-AA27-91EA9F5577B3}"/>
+    <hyperlink ref="V17" r:id="rId100" xr:uid="{1D8BE149-35CF-45D2-8B08-A03DA0648D56}"/>
+    <hyperlink ref="V18" r:id="rId101" xr:uid="{3B11C39E-702C-458B-AC07-81AF876244D9}"/>
+    <hyperlink ref="V19" r:id="rId102" xr:uid="{CA5E5D1D-987F-4F97-AE16-B405DE726B20}"/>
+    <hyperlink ref="V20" r:id="rId103" xr:uid="{34580CBD-A574-42F9-A26E-CDAE754AB7DD}"/>
+    <hyperlink ref="V21" r:id="rId104" xr:uid="{610E7443-7126-4D22-881C-72963075B8CA}"/>
+    <hyperlink ref="V22" r:id="rId105" xr:uid="{BCD53A7C-1B5E-4BF5-B077-E96F4BE2A1DC}"/>
+    <hyperlink ref="V23" r:id="rId106" xr:uid="{20CBFEFD-50D4-433B-B0FA-FFC2FE797D73}"/>
+    <hyperlink ref="V24" r:id="rId107" xr:uid="{DB6FEE3A-FEEA-4EF6-85A3-58F5839DFA2B}"/>
+    <hyperlink ref="V25" r:id="rId108" xr:uid="{EAD86D3B-806F-433A-A871-472CA746261A}"/>
+    <hyperlink ref="V26" r:id="rId109" xr:uid="{5CF657FE-7CBA-4D6A-91FB-866D1AFA2F79}"/>
+    <hyperlink ref="V27" r:id="rId110" xr:uid="{720B47DD-CD03-4B16-ABAD-DD9B692A6D44}"/>
+    <hyperlink ref="V28" r:id="rId111" xr:uid="{01B67240-7D7D-42A4-8D17-7E6736C7F448}"/>
+    <hyperlink ref="V30" r:id="rId112" xr:uid="{81CBED51-DB20-48FC-9717-3525D4FE9CDA}"/>
+    <hyperlink ref="V31" r:id="rId113" xr:uid="{4012AA20-7662-4717-86F0-371E084B8C89}"/>
+    <hyperlink ref="V32" r:id="rId114" xr:uid="{2C8D9304-AA78-4066-8C15-1DE89974E39C}"/>
+    <hyperlink ref="V33" r:id="rId115" xr:uid="{B294F57B-0AFE-4576-9D1A-D23082BF8501}"/>
+    <hyperlink ref="V35" r:id="rId116" xr:uid="{8F7759B0-F329-4A49-AB05-25993CD71280}"/>
+    <hyperlink ref="V36" r:id="rId117" xr:uid="{A43B83F6-A054-48D4-8310-6C652689A804}"/>
+    <hyperlink ref="V37" r:id="rId118" xr:uid="{5BE5CFCE-750F-4DD3-BBCE-7CF964941BCE}"/>
+    <hyperlink ref="V38" r:id="rId119" xr:uid="{E236B582-E8C7-4F16-94B9-F1254872119E}"/>
+    <hyperlink ref="V39" r:id="rId120" xr:uid="{19D93919-B581-43A0-9A9E-020EE0C24C1D}"/>
+    <hyperlink ref="V41" r:id="rId121" xr:uid="{5425252B-1A6B-48E3-8DB0-D40A3A4401E0}"/>
+    <hyperlink ref="V42" r:id="rId122" xr:uid="{3882A14D-61CA-4B5F-95CD-258BFB2C0D87}"/>
+    <hyperlink ref="V43" r:id="rId123" xr:uid="{53AAD0A3-A6D4-485E-A55B-6DCB97DA8FEE}"/>
+    <hyperlink ref="V44" r:id="rId124" xr:uid="{2B7E72C1-6E99-4ADC-A5C4-E346924B5551}"/>
+    <hyperlink ref="V45" r:id="rId125" xr:uid="{D9210D6C-0B9E-4670-87FD-2D1CBCA49EC9}"/>
+    <hyperlink ref="V46" r:id="rId126" xr:uid="{E47BADCA-8864-4F1D-9435-E756D3ECE49D}"/>
+    <hyperlink ref="V47" r:id="rId127" xr:uid="{F2230AE4-C47F-49DB-AA86-5C432A808DA8}"/>
+    <hyperlink ref="V48" r:id="rId128" xr:uid="{BCF1AD5D-3105-4058-8DF8-311E34478EF6}"/>
+    <hyperlink ref="V49" r:id="rId129" xr:uid="{E7DBB389-A52B-418B-803D-B9E9B734CEFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
